--- a/crontab/AMarcket/JGZC.xlsx
+++ b/crontab/AMarcket/JGZC.xlsx
@@ -1,26 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yangj\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\python\QKL0731\crontab\AMarcket\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EFD0C01F-DC32-4517-8B19-6FC7F234B7E3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{751E2F75-B0C9-4521-9079-50ACE50B4BBF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="JGZC" sheetId="1" r:id="rId1"/>
+    <sheet name="机构重仓" sheetId="1" r:id="rId1"/>
+    <sheet name="天基互联" sheetId="2" r:id="rId2"/>
+    <sheet name="基金重仓" sheetId="3" r:id="rId3"/>
+    <sheet name="ETF" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1366" uniqueCount="742">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1802" uniqueCount="958">
   <si>
     <t xml:space="preserve"> 易成新能</t>
   </si>
@@ -2246,12 +2249,660 @@
   </si>
   <si>
     <t xml:space="preserve"> 惠而浦</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 达华智能</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 天银机电</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 全信股份</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 华力创通</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 金信诺</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 中国卫通</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 三维通信</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 康拓红外</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 雷科防务</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 航天发展</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 杰赛科技</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 欧比特</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 人民网</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 盛路通信</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 亚光科技</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 航天电子</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 中国卫星</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 和而泰</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 星网宇达</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 康达新材</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 海格通信</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 海特高新</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 航锦科技</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 振芯科技</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 上海沪工</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 高新兴</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 三诺生物</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 湘油泵</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 保隆科技</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 克来机电</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 国瓷材料</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 美迪西</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 妙可蓝多</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 伯特利</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 伊之密</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 三安光电</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 雅化集团</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 容百科技</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 盐津铺子</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 中科电气</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 捷佳伟创</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 寒锐钴业</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 博腾股份</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 拓普集团</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 山河药辅</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 天奈科技</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 当升科技</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 金禾实业</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 药石科技</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 麦格米特</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 九洲药业</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 凯莱英</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 三特索道</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 法拉电子</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 虹软科技</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 欣旺达</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 博通集成</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 天融信</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 东山精密</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 大族激光</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 欧普康视</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 海容冷链</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 新宝股份</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 锦江酒店</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 鼎捷软件</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 芒果超媒</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 应流股份</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 心脉医疗</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 荃银高科</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 云海金属</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 科沃斯</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 创世纪</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 兴齐眼药</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 国际医学</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 艾德生物</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 瀚蓝环境</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 比音勒芬</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 泰和新材</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 亚玛顿</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 天孚通信</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 昭衍新药</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 英科医疗</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 卫宁健康</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 士兰微</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 三友化工</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 绝味食品</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 仙琚制药</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 盈趣科技</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 良信股份</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 杰克股份</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 鼎龙股份</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 中国巨石</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 东诚药业</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 鸿路钢构</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 光威复材</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 新易盛</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 华宇软件</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 宁波高发</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 东方日升</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 航天彩虹</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 德赛电池</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 迈为股份</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 中简科技</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 长电科技</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 三七互娱</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 易华录</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 迈克生物</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 豆神教育</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 万润股份</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 豪迈科技</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 世运电路</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 普洛药业</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 美亚柏科</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 垒知集团</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 星源材质</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 苏博特</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 思创医惠</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 吉比特</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 巨星科技</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 博汇纸业</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 宏达电子</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 完美世界</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 钢研高纳</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 杭氧股份</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 风华高科</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 明泰铝业</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 再升科技</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 东方通</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 太阳纸业</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 新经典</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 志邦家居</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 华海药业</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 华荣股份</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 鸿远电子</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 弘亚数控</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 壹网壹创</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 航天电器</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 中旗股份</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 建设机械</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 兔 宝 宝</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 惠发食品</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 中孚信息</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 激智科技</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 视源股份</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 飞亚达</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 喜临门</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 阳谷华泰</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 久远银海</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 苏试试验</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 三利谱</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 中直股份</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 凯伦股份</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 大亚圣象</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 天宇股份</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 南极电商</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 科顺股份</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 晨光文具</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 江苏神通</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 我武生物</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 科锐国际</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 钱江摩托</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 酒鬼酒</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 仙乐健康</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 安图生物</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 凌霄泵业</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 康德莱</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 人福医药</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 普利制药</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 顾家家居</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 安车检测</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 奥福环保</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 紫光学大</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 江山欧派</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 兆易创新</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 安井食品</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 圣邦股份</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 信邦制药</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 尚品宅配</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 水井坊</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 晶丰明源</t>
+  </si>
+  <si>
+    <t>券商ETF</t>
+  </si>
+  <si>
+    <t>医药ETF</t>
+  </si>
+  <si>
+    <t>价值100ETF</t>
+  </si>
+  <si>
+    <t>证券保险ETF</t>
+  </si>
+  <si>
+    <t>医药50ETF</t>
+  </si>
+  <si>
+    <t>A50ETF</t>
+  </si>
+  <si>
+    <t>医疗ETF</t>
+  </si>
+  <si>
+    <t>房地产ETF</t>
+  </si>
+  <si>
+    <t>科技ETF</t>
+  </si>
+  <si>
+    <t>生物医药ETF</t>
+  </si>
+  <si>
+    <t>半导体ETF</t>
+  </si>
+  <si>
+    <t>富时A50ETF</t>
+  </si>
+  <si>
+    <t>易方达军工ETF</t>
+  </si>
+  <si>
+    <t>环保ETF</t>
+  </si>
+  <si>
+    <t>主要消费ETF</t>
+  </si>
+  <si>
+    <t>军工ETF</t>
+  </si>
+  <si>
+    <t>国防ETF</t>
+  </si>
+  <si>
+    <t>酒ETF</t>
+  </si>
+  <si>
+    <t>银行ETF</t>
+  </si>
+  <si>
+    <t>计算机ETF</t>
+  </si>
+  <si>
+    <t>芯片ETF</t>
+  </si>
+  <si>
+    <t>证券ETF</t>
+  </si>
+  <si>
+    <t>AIETF</t>
+  </si>
+  <si>
+    <t>恒生医疗ETF</t>
+  </si>
+  <si>
+    <t>恒生互联网ETF</t>
+  </si>
+  <si>
+    <t>新能源车ETF</t>
+  </si>
+  <si>
+    <t>5GETF</t>
+  </si>
+  <si>
+    <t>人工智能ETF</t>
+  </si>
+  <si>
+    <t>创新药ETF</t>
+  </si>
+  <si>
+    <t>食品饮料ETF</t>
+  </si>
+  <si>
+    <t>钢铁ETF</t>
+  </si>
+  <si>
+    <t>煤炭ETF</t>
+  </si>
+  <si>
+    <t>软件ETf</t>
+  </si>
+  <si>
+    <t>智能汽车ETF</t>
+  </si>
+  <si>
+    <t>电子ETF</t>
+  </si>
+  <si>
+    <t>医药龙头ETF</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3196,10 +3847,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D683"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
@@ -12771,4 +13422,3274 @@
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D70D0007-3BF4-4AED-9852-307C1CD390FF}">
+  <dimension ref="A1:D27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1">
+        <v>2512</v>
+      </c>
+      <c r="C1" t="s">
+        <v>742</v>
+      </c>
+      <c r="D1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>300342</v>
+      </c>
+      <c r="C2" t="s">
+        <v>743</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>300447</v>
+      </c>
+      <c r="C3" t="s">
+        <v>744</v>
+      </c>
+      <c r="D3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>300045</v>
+      </c>
+      <c r="C4" t="s">
+        <v>745</v>
+      </c>
+      <c r="D4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>300252</v>
+      </c>
+      <c r="C5" t="s">
+        <v>746</v>
+      </c>
+      <c r="D5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>601698</v>
+      </c>
+      <c r="C6" t="s">
+        <v>747</v>
+      </c>
+      <c r="D6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>2115</v>
+      </c>
+      <c r="C7" t="s">
+        <v>748</v>
+      </c>
+      <c r="D7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>300455</v>
+      </c>
+      <c r="C8" t="s">
+        <v>749</v>
+      </c>
+      <c r="D8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>2413</v>
+      </c>
+      <c r="C9" t="s">
+        <v>750</v>
+      </c>
+      <c r="D9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>300903</v>
+      </c>
+      <c r="C10" t="s">
+        <v>95</v>
+      </c>
+      <c r="D10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>547</v>
+      </c>
+      <c r="C11" t="s">
+        <v>751</v>
+      </c>
+      <c r="D11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>2544</v>
+      </c>
+      <c r="C12" t="s">
+        <v>752</v>
+      </c>
+      <c r="D12" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>300053</v>
+      </c>
+      <c r="C13" t="s">
+        <v>753</v>
+      </c>
+      <c r="D13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>14</v>
+      </c>
+      <c r="B14">
+        <v>603000</v>
+      </c>
+      <c r="C14" t="s">
+        <v>754</v>
+      </c>
+      <c r="D14" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>15</v>
+      </c>
+      <c r="B15">
+        <v>2446</v>
+      </c>
+      <c r="C15" t="s">
+        <v>755</v>
+      </c>
+      <c r="D15" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <v>300123</v>
+      </c>
+      <c r="C16" t="s">
+        <v>756</v>
+      </c>
+      <c r="D16" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>17</v>
+      </c>
+      <c r="B17">
+        <v>600879</v>
+      </c>
+      <c r="C17" t="s">
+        <v>757</v>
+      </c>
+      <c r="D17" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>18</v>
+      </c>
+      <c r="B18">
+        <v>600118</v>
+      </c>
+      <c r="C18" t="s">
+        <v>758</v>
+      </c>
+      <c r="D18" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>19</v>
+      </c>
+      <c r="B19">
+        <v>2402</v>
+      </c>
+      <c r="C19" t="s">
+        <v>759</v>
+      </c>
+      <c r="D19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>20</v>
+      </c>
+      <c r="B20">
+        <v>2829</v>
+      </c>
+      <c r="C20" t="s">
+        <v>760</v>
+      </c>
+      <c r="D20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>21</v>
+      </c>
+      <c r="B21">
+        <v>2669</v>
+      </c>
+      <c r="C21" t="s">
+        <v>761</v>
+      </c>
+      <c r="D21" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>22</v>
+      </c>
+      <c r="B22">
+        <v>2465</v>
+      </c>
+      <c r="C22" t="s">
+        <v>762</v>
+      </c>
+      <c r="D22" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>23</v>
+      </c>
+      <c r="B23">
+        <v>2023</v>
+      </c>
+      <c r="C23" t="s">
+        <v>763</v>
+      </c>
+      <c r="D23" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>24</v>
+      </c>
+      <c r="B24">
+        <v>818</v>
+      </c>
+      <c r="C24" t="s">
+        <v>764</v>
+      </c>
+      <c r="D24" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>25</v>
+      </c>
+      <c r="B25">
+        <v>300101</v>
+      </c>
+      <c r="C25" t="s">
+        <v>765</v>
+      </c>
+      <c r="D25" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>26</v>
+      </c>
+      <c r="B26">
+        <v>603131</v>
+      </c>
+      <c r="C26" t="s">
+        <v>766</v>
+      </c>
+      <c r="D26" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>27</v>
+      </c>
+      <c r="B27">
+        <v>300098</v>
+      </c>
+      <c r="C27" t="s">
+        <v>767</v>
+      </c>
+      <c r="D27" t="s">
+        <v>71</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5ABDB07F-DA89-4CDC-ADA9-BE16EA4E8C3C}">
+  <dimension ref="A1:D171"/>
+  <sheetViews>
+    <sheetView topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1">
+        <v>300298</v>
+      </c>
+      <c r="C1" t="s">
+        <v>768</v>
+      </c>
+      <c r="D1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>603319</v>
+      </c>
+      <c r="C2" t="s">
+        <v>769</v>
+      </c>
+      <c r="D2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>2759</v>
+      </c>
+      <c r="C3" t="s">
+        <v>543</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>603197</v>
+      </c>
+      <c r="C4" t="s">
+        <v>770</v>
+      </c>
+      <c r="D4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>603960</v>
+      </c>
+      <c r="C5" t="s">
+        <v>771</v>
+      </c>
+      <c r="D5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>300285</v>
+      </c>
+      <c r="C6" t="s">
+        <v>772</v>
+      </c>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>688202</v>
+      </c>
+      <c r="C7" t="s">
+        <v>773</v>
+      </c>
+      <c r="D7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>688019</v>
+      </c>
+      <c r="C8" t="s">
+        <v>693</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>600882</v>
+      </c>
+      <c r="C9" t="s">
+        <v>774</v>
+      </c>
+      <c r="D9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>603596</v>
+      </c>
+      <c r="C10" t="s">
+        <v>775</v>
+      </c>
+      <c r="D10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>300369</v>
+      </c>
+      <c r="C11" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>300415</v>
+      </c>
+      <c r="C12" t="s">
+        <v>776</v>
+      </c>
+      <c r="D12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>600703</v>
+      </c>
+      <c r="C13" t="s">
+        <v>777</v>
+      </c>
+      <c r="D13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>14</v>
+      </c>
+      <c r="B14">
+        <v>2497</v>
+      </c>
+      <c r="C14" t="s">
+        <v>778</v>
+      </c>
+      <c r="D14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>15</v>
+      </c>
+      <c r="B15">
+        <v>688005</v>
+      </c>
+      <c r="C15" t="s">
+        <v>779</v>
+      </c>
+      <c r="D15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <v>603236</v>
+      </c>
+      <c r="C16" t="s">
+        <v>207</v>
+      </c>
+      <c r="D16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>17</v>
+      </c>
+      <c r="B17">
+        <v>2847</v>
+      </c>
+      <c r="C17" t="s">
+        <v>780</v>
+      </c>
+      <c r="D17" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>18</v>
+      </c>
+      <c r="B18">
+        <v>300035</v>
+      </c>
+      <c r="C18" t="s">
+        <v>781</v>
+      </c>
+      <c r="D18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>19</v>
+      </c>
+      <c r="B19">
+        <v>300724</v>
+      </c>
+      <c r="C19" t="s">
+        <v>782</v>
+      </c>
+      <c r="D19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>20</v>
+      </c>
+      <c r="B20">
+        <v>300618</v>
+      </c>
+      <c r="C20" t="s">
+        <v>783</v>
+      </c>
+      <c r="D20" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>21</v>
+      </c>
+      <c r="B21">
+        <v>300363</v>
+      </c>
+      <c r="C21" t="s">
+        <v>784</v>
+      </c>
+      <c r="D21" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>22</v>
+      </c>
+      <c r="B22">
+        <v>601689</v>
+      </c>
+      <c r="C22" t="s">
+        <v>785</v>
+      </c>
+      <c r="D22" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>23</v>
+      </c>
+      <c r="B23">
+        <v>300452</v>
+      </c>
+      <c r="C23" t="s">
+        <v>786</v>
+      </c>
+      <c r="D23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>24</v>
+      </c>
+      <c r="B24">
+        <v>688116</v>
+      </c>
+      <c r="C24" t="s">
+        <v>787</v>
+      </c>
+      <c r="D24" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>25</v>
+      </c>
+      <c r="B25">
+        <v>300073</v>
+      </c>
+      <c r="C25" t="s">
+        <v>788</v>
+      </c>
+      <c r="D25" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>26</v>
+      </c>
+      <c r="B26">
+        <v>2597</v>
+      </c>
+      <c r="C26" t="s">
+        <v>789</v>
+      </c>
+      <c r="D26" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>27</v>
+      </c>
+      <c r="B27">
+        <v>300725</v>
+      </c>
+      <c r="C27" t="s">
+        <v>790</v>
+      </c>
+      <c r="D27" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>28</v>
+      </c>
+      <c r="B28">
+        <v>300769</v>
+      </c>
+      <c r="C28" t="s">
+        <v>487</v>
+      </c>
+      <c r="D28" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>29</v>
+      </c>
+      <c r="B29">
+        <v>2851</v>
+      </c>
+      <c r="C29" t="s">
+        <v>791</v>
+      </c>
+      <c r="D29" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>30</v>
+      </c>
+      <c r="B30">
+        <v>603456</v>
+      </c>
+      <c r="C30" t="s">
+        <v>792</v>
+      </c>
+      <c r="D30" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>31</v>
+      </c>
+      <c r="B31">
+        <v>2821</v>
+      </c>
+      <c r="C31" t="s">
+        <v>793</v>
+      </c>
+      <c r="D31" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>32</v>
+      </c>
+      <c r="B32">
+        <v>2159</v>
+      </c>
+      <c r="C32" t="s">
+        <v>794</v>
+      </c>
+      <c r="D32" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>33</v>
+      </c>
+      <c r="B33">
+        <v>600563</v>
+      </c>
+      <c r="C33" t="s">
+        <v>795</v>
+      </c>
+      <c r="D33" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>34</v>
+      </c>
+      <c r="B34">
+        <v>688088</v>
+      </c>
+      <c r="C34" t="s">
+        <v>796</v>
+      </c>
+      <c r="D34" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>35</v>
+      </c>
+      <c r="B35">
+        <v>300207</v>
+      </c>
+      <c r="C35" t="s">
+        <v>797</v>
+      </c>
+      <c r="D35" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>36</v>
+      </c>
+      <c r="B36">
+        <v>603068</v>
+      </c>
+      <c r="C36" t="s">
+        <v>798</v>
+      </c>
+      <c r="D36" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>37</v>
+      </c>
+      <c r="B37">
+        <v>2212</v>
+      </c>
+      <c r="C37" t="s">
+        <v>799</v>
+      </c>
+      <c r="D37" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>38</v>
+      </c>
+      <c r="B38">
+        <v>2384</v>
+      </c>
+      <c r="C38" t="s">
+        <v>800</v>
+      </c>
+      <c r="D38" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>39</v>
+      </c>
+      <c r="B39">
+        <v>2928</v>
+      </c>
+      <c r="C39" t="s">
+        <v>501</v>
+      </c>
+      <c r="D39" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>40</v>
+      </c>
+      <c r="B40">
+        <v>2008</v>
+      </c>
+      <c r="C40" t="s">
+        <v>801</v>
+      </c>
+      <c r="D40" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>41</v>
+      </c>
+      <c r="B41">
+        <v>300595</v>
+      </c>
+      <c r="C41" t="s">
+        <v>802</v>
+      </c>
+      <c r="D41" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>42</v>
+      </c>
+      <c r="B42">
+        <v>603187</v>
+      </c>
+      <c r="C42" t="s">
+        <v>803</v>
+      </c>
+      <c r="D42" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>43</v>
+      </c>
+      <c r="B43">
+        <v>688006</v>
+      </c>
+      <c r="C43" t="s">
+        <v>79</v>
+      </c>
+      <c r="D43" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>44</v>
+      </c>
+      <c r="B44">
+        <v>2705</v>
+      </c>
+      <c r="C44" t="s">
+        <v>804</v>
+      </c>
+      <c r="D44" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>45</v>
+      </c>
+      <c r="B45">
+        <v>600754</v>
+      </c>
+      <c r="C45" t="s">
+        <v>805</v>
+      </c>
+      <c r="D45" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>46</v>
+      </c>
+      <c r="B46">
+        <v>300378</v>
+      </c>
+      <c r="C46" t="s">
+        <v>806</v>
+      </c>
+      <c r="D46" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>47</v>
+      </c>
+      <c r="B47">
+        <v>300413</v>
+      </c>
+      <c r="C47" t="s">
+        <v>807</v>
+      </c>
+      <c r="D47" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>48</v>
+      </c>
+      <c r="B48">
+        <v>603308</v>
+      </c>
+      <c r="C48" t="s">
+        <v>808</v>
+      </c>
+      <c r="D48" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>49</v>
+      </c>
+      <c r="B49">
+        <v>688016</v>
+      </c>
+      <c r="C49" t="s">
+        <v>809</v>
+      </c>
+      <c r="D49" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>50</v>
+      </c>
+      <c r="B50">
+        <v>300087</v>
+      </c>
+      <c r="C50" t="s">
+        <v>810</v>
+      </c>
+      <c r="D50" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>51</v>
+      </c>
+      <c r="B51">
+        <v>2182</v>
+      </c>
+      <c r="C51" t="s">
+        <v>811</v>
+      </c>
+      <c r="D51" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>52</v>
+      </c>
+      <c r="B52">
+        <v>603486</v>
+      </c>
+      <c r="C52" t="s">
+        <v>812</v>
+      </c>
+      <c r="D52" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>53</v>
+      </c>
+      <c r="B53">
+        <v>300083</v>
+      </c>
+      <c r="C53" t="s">
+        <v>813</v>
+      </c>
+      <c r="D53" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>54</v>
+      </c>
+      <c r="B54">
+        <v>300573</v>
+      </c>
+      <c r="C54" t="s">
+        <v>814</v>
+      </c>
+      <c r="D54" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>55</v>
+      </c>
+      <c r="B55">
+        <v>516</v>
+      </c>
+      <c r="C55" t="s">
+        <v>815</v>
+      </c>
+      <c r="D55" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>56</v>
+      </c>
+      <c r="B56">
+        <v>300685</v>
+      </c>
+      <c r="C56" t="s">
+        <v>816</v>
+      </c>
+      <c r="D56" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>57</v>
+      </c>
+      <c r="B57">
+        <v>600323</v>
+      </c>
+      <c r="C57" t="s">
+        <v>817</v>
+      </c>
+      <c r="D57" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>58</v>
+      </c>
+      <c r="B58">
+        <v>2832</v>
+      </c>
+      <c r="C58" t="s">
+        <v>818</v>
+      </c>
+      <c r="D58" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>59</v>
+      </c>
+      <c r="B59">
+        <v>2254</v>
+      </c>
+      <c r="C59" t="s">
+        <v>819</v>
+      </c>
+      <c r="D59" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>60</v>
+      </c>
+      <c r="B60">
+        <v>2623</v>
+      </c>
+      <c r="C60" t="s">
+        <v>820</v>
+      </c>
+      <c r="D60" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>61</v>
+      </c>
+      <c r="B61">
+        <v>300394</v>
+      </c>
+      <c r="C61" t="s">
+        <v>821</v>
+      </c>
+      <c r="D61" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>62</v>
+      </c>
+      <c r="B62">
+        <v>603127</v>
+      </c>
+      <c r="C62" t="s">
+        <v>822</v>
+      </c>
+      <c r="D62" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>63</v>
+      </c>
+      <c r="B63">
+        <v>300677</v>
+      </c>
+      <c r="C63" t="s">
+        <v>823</v>
+      </c>
+      <c r="D63" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>64</v>
+      </c>
+      <c r="B64">
+        <v>300253</v>
+      </c>
+      <c r="C64" t="s">
+        <v>824</v>
+      </c>
+      <c r="D64" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>65</v>
+      </c>
+      <c r="B65">
+        <v>600460</v>
+      </c>
+      <c r="C65" t="s">
+        <v>825</v>
+      </c>
+      <c r="D65" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>66</v>
+      </c>
+      <c r="B66">
+        <v>600409</v>
+      </c>
+      <c r="C66" t="s">
+        <v>826</v>
+      </c>
+      <c r="D66" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>67</v>
+      </c>
+      <c r="B67">
+        <v>603517</v>
+      </c>
+      <c r="C67" t="s">
+        <v>827</v>
+      </c>
+      <c r="D67" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>68</v>
+      </c>
+      <c r="B68">
+        <v>2332</v>
+      </c>
+      <c r="C68" t="s">
+        <v>828</v>
+      </c>
+      <c r="D68" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>69</v>
+      </c>
+      <c r="B69">
+        <v>2925</v>
+      </c>
+      <c r="C69" t="s">
+        <v>829</v>
+      </c>
+      <c r="D69" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>70</v>
+      </c>
+      <c r="B70">
+        <v>2706</v>
+      </c>
+      <c r="C70" t="s">
+        <v>830</v>
+      </c>
+      <c r="D70" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>71</v>
+      </c>
+      <c r="B71">
+        <v>603337</v>
+      </c>
+      <c r="C71" t="s">
+        <v>831</v>
+      </c>
+      <c r="D71" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>72</v>
+      </c>
+      <c r="B72">
+        <v>300054</v>
+      </c>
+      <c r="C72" t="s">
+        <v>832</v>
+      </c>
+      <c r="D72" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>73</v>
+      </c>
+      <c r="B73">
+        <v>600176</v>
+      </c>
+      <c r="C73" t="s">
+        <v>833</v>
+      </c>
+      <c r="D73" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>74</v>
+      </c>
+      <c r="B74">
+        <v>2675</v>
+      </c>
+      <c r="C74" t="s">
+        <v>834</v>
+      </c>
+      <c r="D74" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>75</v>
+      </c>
+      <c r="B75">
+        <v>2541</v>
+      </c>
+      <c r="C75" t="s">
+        <v>835</v>
+      </c>
+      <c r="D75" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>76</v>
+      </c>
+      <c r="B76">
+        <v>300699</v>
+      </c>
+      <c r="C76" t="s">
+        <v>836</v>
+      </c>
+      <c r="D76" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>77</v>
+      </c>
+      <c r="B77">
+        <v>300502</v>
+      </c>
+      <c r="C77" t="s">
+        <v>837</v>
+      </c>
+      <c r="D77" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>78</v>
+      </c>
+      <c r="B78">
+        <v>300271</v>
+      </c>
+      <c r="C78" t="s">
+        <v>838</v>
+      </c>
+      <c r="D78" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>79</v>
+      </c>
+      <c r="B79">
+        <v>603788</v>
+      </c>
+      <c r="C79" t="s">
+        <v>839</v>
+      </c>
+      <c r="D79" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>80</v>
+      </c>
+      <c r="B80">
+        <v>688023</v>
+      </c>
+      <c r="C80" t="s">
+        <v>67</v>
+      </c>
+      <c r="D80" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>81</v>
+      </c>
+      <c r="B81">
+        <v>300118</v>
+      </c>
+      <c r="C81" t="s">
+        <v>840</v>
+      </c>
+      <c r="D81" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>82</v>
+      </c>
+      <c r="B82">
+        <v>2389</v>
+      </c>
+      <c r="C82" t="s">
+        <v>841</v>
+      </c>
+      <c r="D82" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>83</v>
+      </c>
+      <c r="B83">
+        <v>49</v>
+      </c>
+      <c r="C83" t="s">
+        <v>842</v>
+      </c>
+      <c r="D83" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>84</v>
+      </c>
+      <c r="B84">
+        <v>300751</v>
+      </c>
+      <c r="C84" t="s">
+        <v>843</v>
+      </c>
+      <c r="D84" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>85</v>
+      </c>
+      <c r="B85">
+        <v>300777</v>
+      </c>
+      <c r="C85" t="s">
+        <v>844</v>
+      </c>
+      <c r="D85" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>86</v>
+      </c>
+      <c r="B86">
+        <v>600584</v>
+      </c>
+      <c r="C86" t="s">
+        <v>845</v>
+      </c>
+      <c r="D86" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>87</v>
+      </c>
+      <c r="B87">
+        <v>2555</v>
+      </c>
+      <c r="C87" t="s">
+        <v>846</v>
+      </c>
+      <c r="D87" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>88</v>
+      </c>
+      <c r="B88">
+        <v>300212</v>
+      </c>
+      <c r="C88" t="s">
+        <v>847</v>
+      </c>
+      <c r="D88" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>89</v>
+      </c>
+      <c r="B89">
+        <v>300463</v>
+      </c>
+      <c r="C89" t="s">
+        <v>848</v>
+      </c>
+      <c r="D89" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>90</v>
+      </c>
+      <c r="B90">
+        <v>300010</v>
+      </c>
+      <c r="C90" t="s">
+        <v>849</v>
+      </c>
+      <c r="D90" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>91</v>
+      </c>
+      <c r="B91">
+        <v>2643</v>
+      </c>
+      <c r="C91" t="s">
+        <v>850</v>
+      </c>
+      <c r="D91" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>92</v>
+      </c>
+      <c r="B92">
+        <v>2595</v>
+      </c>
+      <c r="C92" t="s">
+        <v>851</v>
+      </c>
+      <c r="D92" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>93</v>
+      </c>
+      <c r="B93">
+        <v>603005</v>
+      </c>
+      <c r="C93" t="s">
+        <v>517</v>
+      </c>
+      <c r="D93" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>94</v>
+      </c>
+      <c r="B94">
+        <v>603920</v>
+      </c>
+      <c r="C94" t="s">
+        <v>852</v>
+      </c>
+      <c r="D94" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>95</v>
+      </c>
+      <c r="B95">
+        <v>739</v>
+      </c>
+      <c r="C95" t="s">
+        <v>853</v>
+      </c>
+      <c r="D95" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>96</v>
+      </c>
+      <c r="B96">
+        <v>300188</v>
+      </c>
+      <c r="C96" t="s">
+        <v>854</v>
+      </c>
+      <c r="D96" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>97</v>
+      </c>
+      <c r="B97">
+        <v>2398</v>
+      </c>
+      <c r="C97" t="s">
+        <v>855</v>
+      </c>
+      <c r="D97" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>98</v>
+      </c>
+      <c r="B98">
+        <v>300568</v>
+      </c>
+      <c r="C98" t="s">
+        <v>856</v>
+      </c>
+      <c r="D98" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>99</v>
+      </c>
+      <c r="B99">
+        <v>603916</v>
+      </c>
+      <c r="C99" t="s">
+        <v>857</v>
+      </c>
+      <c r="D99" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>100</v>
+      </c>
+      <c r="B100">
+        <v>600765</v>
+      </c>
+      <c r="C100" t="s">
+        <v>333</v>
+      </c>
+      <c r="D100" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>101</v>
+      </c>
+      <c r="B101">
+        <v>300078</v>
+      </c>
+      <c r="C101" t="s">
+        <v>858</v>
+      </c>
+      <c r="D101" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A102">
+        <v>102</v>
+      </c>
+      <c r="B102">
+        <v>603444</v>
+      </c>
+      <c r="C102" t="s">
+        <v>859</v>
+      </c>
+      <c r="D102" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A103">
+        <v>103</v>
+      </c>
+      <c r="B103">
+        <v>2444</v>
+      </c>
+      <c r="C103" t="s">
+        <v>860</v>
+      </c>
+      <c r="D103" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A104">
+        <v>104</v>
+      </c>
+      <c r="B104">
+        <v>2968</v>
+      </c>
+      <c r="C104" t="s">
+        <v>58</v>
+      </c>
+      <c r="D104" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A105">
+        <v>105</v>
+      </c>
+      <c r="B105">
+        <v>600966</v>
+      </c>
+      <c r="C105" t="s">
+        <v>861</v>
+      </c>
+      <c r="D105" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A106">
+        <v>106</v>
+      </c>
+      <c r="B106">
+        <v>300726</v>
+      </c>
+      <c r="C106" t="s">
+        <v>862</v>
+      </c>
+      <c r="D106" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A107">
+        <v>107</v>
+      </c>
+      <c r="B107">
+        <v>2624</v>
+      </c>
+      <c r="C107" t="s">
+        <v>863</v>
+      </c>
+      <c r="D107" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A108">
+        <v>108</v>
+      </c>
+      <c r="B108">
+        <v>300034</v>
+      </c>
+      <c r="C108" t="s">
+        <v>864</v>
+      </c>
+      <c r="D108" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A109">
+        <v>109</v>
+      </c>
+      <c r="B109">
+        <v>2430</v>
+      </c>
+      <c r="C109" t="s">
+        <v>865</v>
+      </c>
+      <c r="D109" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A110">
+        <v>110</v>
+      </c>
+      <c r="B110">
+        <v>636</v>
+      </c>
+      <c r="C110" t="s">
+        <v>866</v>
+      </c>
+      <c r="D110" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A111">
+        <v>111</v>
+      </c>
+      <c r="B111">
+        <v>601677</v>
+      </c>
+      <c r="C111" t="s">
+        <v>867</v>
+      </c>
+      <c r="D111" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A112">
+        <v>112</v>
+      </c>
+      <c r="B112">
+        <v>603601</v>
+      </c>
+      <c r="C112" t="s">
+        <v>868</v>
+      </c>
+      <c r="D112" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A113">
+        <v>113</v>
+      </c>
+      <c r="B113">
+        <v>300379</v>
+      </c>
+      <c r="C113" t="s">
+        <v>869</v>
+      </c>
+      <c r="D113" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A114">
+        <v>114</v>
+      </c>
+      <c r="B114">
+        <v>2078</v>
+      </c>
+      <c r="C114" t="s">
+        <v>870</v>
+      </c>
+      <c r="D114" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A115">
+        <v>115</v>
+      </c>
+      <c r="B115">
+        <v>603096</v>
+      </c>
+      <c r="C115" t="s">
+        <v>871</v>
+      </c>
+      <c r="D115" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A116">
+        <v>116</v>
+      </c>
+      <c r="B116">
+        <v>603801</v>
+      </c>
+      <c r="C116" t="s">
+        <v>872</v>
+      </c>
+      <c r="D116" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A117">
+        <v>117</v>
+      </c>
+      <c r="B117">
+        <v>600521</v>
+      </c>
+      <c r="C117" t="s">
+        <v>873</v>
+      </c>
+      <c r="D117" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A118">
+        <v>118</v>
+      </c>
+      <c r="B118">
+        <v>603678</v>
+      </c>
+      <c r="C118" t="s">
+        <v>526</v>
+      </c>
+      <c r="D118" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A119">
+        <v>119</v>
+      </c>
+      <c r="B119">
+        <v>603855</v>
+      </c>
+      <c r="C119" t="s">
+        <v>874</v>
+      </c>
+      <c r="D119" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A120">
+        <v>120</v>
+      </c>
+      <c r="B120">
+        <v>300395</v>
+      </c>
+      <c r="C120" t="s">
+        <v>142</v>
+      </c>
+      <c r="D120" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A121">
+        <v>121</v>
+      </c>
+      <c r="B121">
+        <v>2949</v>
+      </c>
+      <c r="C121" t="s">
+        <v>376</v>
+      </c>
+      <c r="D121" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A122">
+        <v>122</v>
+      </c>
+      <c r="B122">
+        <v>603267</v>
+      </c>
+      <c r="C122" t="s">
+        <v>875</v>
+      </c>
+      <c r="D122" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A123">
+        <v>123</v>
+      </c>
+      <c r="B123">
+        <v>2833</v>
+      </c>
+      <c r="C123" t="s">
+        <v>876</v>
+      </c>
+      <c r="D123" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A124">
+        <v>124</v>
+      </c>
+      <c r="B124">
+        <v>300792</v>
+      </c>
+      <c r="C124" t="s">
+        <v>877</v>
+      </c>
+      <c r="D124" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A125">
+        <v>125</v>
+      </c>
+      <c r="B125">
+        <v>2025</v>
+      </c>
+      <c r="C125" t="s">
+        <v>878</v>
+      </c>
+      <c r="D125" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A126">
+        <v>126</v>
+      </c>
+      <c r="B126">
+        <v>300575</v>
+      </c>
+      <c r="C126" t="s">
+        <v>879</v>
+      </c>
+      <c r="D126" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A127">
+        <v>127</v>
+      </c>
+      <c r="B127">
+        <v>600984</v>
+      </c>
+      <c r="C127" t="s">
+        <v>880</v>
+      </c>
+      <c r="D127" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A128">
+        <v>128</v>
+      </c>
+      <c r="B128">
+        <v>300244</v>
+      </c>
+      <c r="C128" t="s">
+        <v>525</v>
+      </c>
+      <c r="D128" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A129">
+        <v>129</v>
+      </c>
+      <c r="B129">
+        <v>2043</v>
+      </c>
+      <c r="C129" t="s">
+        <v>881</v>
+      </c>
+      <c r="D129" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A130">
+        <v>130</v>
+      </c>
+      <c r="B130">
+        <v>603536</v>
+      </c>
+      <c r="C130" t="s">
+        <v>882</v>
+      </c>
+      <c r="D130" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A131">
+        <v>131</v>
+      </c>
+      <c r="B131">
+        <v>300659</v>
+      </c>
+      <c r="C131" t="s">
+        <v>883</v>
+      </c>
+      <c r="D131" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A132">
+        <v>132</v>
+      </c>
+      <c r="B132">
+        <v>300566</v>
+      </c>
+      <c r="C132" t="s">
+        <v>884</v>
+      </c>
+      <c r="D132" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A133">
+        <v>133</v>
+      </c>
+      <c r="B133">
+        <v>2841</v>
+      </c>
+      <c r="C133" t="s">
+        <v>885</v>
+      </c>
+      <c r="D133" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A134">
+        <v>134</v>
+      </c>
+      <c r="B134">
+        <v>26</v>
+      </c>
+      <c r="C134" t="s">
+        <v>886</v>
+      </c>
+      <c r="D134" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A135">
+        <v>135</v>
+      </c>
+      <c r="B135">
+        <v>603008</v>
+      </c>
+      <c r="C135" t="s">
+        <v>887</v>
+      </c>
+      <c r="D135" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A136">
+        <v>136</v>
+      </c>
+      <c r="B136">
+        <v>300121</v>
+      </c>
+      <c r="C136" t="s">
+        <v>888</v>
+      </c>
+      <c r="D136" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A137">
+        <v>137</v>
+      </c>
+      <c r="B137">
+        <v>2777</v>
+      </c>
+      <c r="C137" t="s">
+        <v>889</v>
+      </c>
+      <c r="D137" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A138">
+        <v>138</v>
+      </c>
+      <c r="B138">
+        <v>300416</v>
+      </c>
+      <c r="C138" t="s">
+        <v>890</v>
+      </c>
+      <c r="D138" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A139">
+        <v>139</v>
+      </c>
+      <c r="B139">
+        <v>2876</v>
+      </c>
+      <c r="C139" t="s">
+        <v>891</v>
+      </c>
+      <c r="D139" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A140">
+        <v>140</v>
+      </c>
+      <c r="B140">
+        <v>601128</v>
+      </c>
+      <c r="C140" t="s">
+        <v>407</v>
+      </c>
+      <c r="D140" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A141">
+        <v>141</v>
+      </c>
+      <c r="B141">
+        <v>600038</v>
+      </c>
+      <c r="C141" t="s">
+        <v>892</v>
+      </c>
+      <c r="D141" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A142">
+        <v>142</v>
+      </c>
+      <c r="B142">
+        <v>300715</v>
+      </c>
+      <c r="C142" t="s">
+        <v>893</v>
+      </c>
+      <c r="D142" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A143">
+        <v>143</v>
+      </c>
+      <c r="B143">
+        <v>910</v>
+      </c>
+      <c r="C143" t="s">
+        <v>894</v>
+      </c>
+      <c r="D143" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A144">
+        <v>144</v>
+      </c>
+      <c r="B144">
+        <v>300702</v>
+      </c>
+      <c r="C144" t="s">
+        <v>895</v>
+      </c>
+      <c r="D144" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A145">
+        <v>145</v>
+      </c>
+      <c r="B145">
+        <v>300482</v>
+      </c>
+      <c r="C145" t="s">
+        <v>229</v>
+      </c>
+      <c r="D145" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A146">
+        <v>146</v>
+      </c>
+      <c r="B146">
+        <v>2127</v>
+      </c>
+      <c r="C146" t="s">
+        <v>896</v>
+      </c>
+      <c r="D146" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A147">
+        <v>147</v>
+      </c>
+      <c r="B147">
+        <v>300737</v>
+      </c>
+      <c r="C147" t="s">
+        <v>897</v>
+      </c>
+      <c r="D147" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A148">
+        <v>148</v>
+      </c>
+      <c r="B148">
+        <v>603899</v>
+      </c>
+      <c r="C148" t="s">
+        <v>898</v>
+      </c>
+      <c r="D148" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A149">
+        <v>149</v>
+      </c>
+      <c r="B149">
+        <v>2438</v>
+      </c>
+      <c r="C149" t="s">
+        <v>899</v>
+      </c>
+      <c r="D149" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A150">
+        <v>150</v>
+      </c>
+      <c r="B150">
+        <v>300357</v>
+      </c>
+      <c r="C150" t="s">
+        <v>900</v>
+      </c>
+      <c r="D150" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A151">
+        <v>151</v>
+      </c>
+      <c r="B151">
+        <v>300662</v>
+      </c>
+      <c r="C151" t="s">
+        <v>901</v>
+      </c>
+      <c r="D151" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A152">
+        <v>152</v>
+      </c>
+      <c r="B152">
+        <v>913</v>
+      </c>
+      <c r="C152" t="s">
+        <v>902</v>
+      </c>
+      <c r="D152" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A153">
+        <v>153</v>
+      </c>
+      <c r="B153">
+        <v>799</v>
+      </c>
+      <c r="C153" t="s">
+        <v>903</v>
+      </c>
+      <c r="D153" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A154">
+        <v>154</v>
+      </c>
+      <c r="B154">
+        <v>300791</v>
+      </c>
+      <c r="C154" t="s">
+        <v>904</v>
+      </c>
+      <c r="D154" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A155">
+        <v>155</v>
+      </c>
+      <c r="B155">
+        <v>603658</v>
+      </c>
+      <c r="C155" t="s">
+        <v>905</v>
+      </c>
+      <c r="D155" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A156">
+        <v>156</v>
+      </c>
+      <c r="B156">
+        <v>2884</v>
+      </c>
+      <c r="C156" t="s">
+        <v>906</v>
+      </c>
+      <c r="D156" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A157">
+        <v>157</v>
+      </c>
+      <c r="B157">
+        <v>603987</v>
+      </c>
+      <c r="C157" t="s">
+        <v>907</v>
+      </c>
+      <c r="D157" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A158">
+        <v>158</v>
+      </c>
+      <c r="B158">
+        <v>600079</v>
+      </c>
+      <c r="C158" t="s">
+        <v>908</v>
+      </c>
+      <c r="D158" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A159">
+        <v>159</v>
+      </c>
+      <c r="B159">
+        <v>300630</v>
+      </c>
+      <c r="C159" t="s">
+        <v>909</v>
+      </c>
+      <c r="D159" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A160">
+        <v>160</v>
+      </c>
+      <c r="B160">
+        <v>603816</v>
+      </c>
+      <c r="C160" t="s">
+        <v>910</v>
+      </c>
+      <c r="D160" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A161">
+        <v>161</v>
+      </c>
+      <c r="B161">
+        <v>300572</v>
+      </c>
+      <c r="C161" t="s">
+        <v>911</v>
+      </c>
+      <c r="D161" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A162">
+        <v>162</v>
+      </c>
+      <c r="B162">
+        <v>688021</v>
+      </c>
+      <c r="C162" t="s">
+        <v>912</v>
+      </c>
+      <c r="D162" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A163">
+        <v>163</v>
+      </c>
+      <c r="B163">
+        <v>526</v>
+      </c>
+      <c r="C163" t="s">
+        <v>913</v>
+      </c>
+      <c r="D163" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A164">
+        <v>164</v>
+      </c>
+      <c r="B164">
+        <v>603208</v>
+      </c>
+      <c r="C164" t="s">
+        <v>914</v>
+      </c>
+      <c r="D164" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A165">
+        <v>165</v>
+      </c>
+      <c r="B165">
+        <v>603986</v>
+      </c>
+      <c r="C165" t="s">
+        <v>915</v>
+      </c>
+      <c r="D165" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A166">
+        <v>166</v>
+      </c>
+      <c r="B166">
+        <v>603345</v>
+      </c>
+      <c r="C166" t="s">
+        <v>916</v>
+      </c>
+      <c r="D166" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A167">
+        <v>167</v>
+      </c>
+      <c r="B167">
+        <v>300661</v>
+      </c>
+      <c r="C167" t="s">
+        <v>917</v>
+      </c>
+      <c r="D167" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A168">
+        <v>168</v>
+      </c>
+      <c r="B168">
+        <v>2390</v>
+      </c>
+      <c r="C168" t="s">
+        <v>918</v>
+      </c>
+      <c r="D168" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A169">
+        <v>169</v>
+      </c>
+      <c r="B169">
+        <v>300616</v>
+      </c>
+      <c r="C169" t="s">
+        <v>919</v>
+      </c>
+      <c r="D169" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A170">
+        <v>170</v>
+      </c>
+      <c r="B170">
+        <v>600779</v>
+      </c>
+      <c r="C170" t="s">
+        <v>920</v>
+      </c>
+      <c r="D170" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A171">
+        <v>171</v>
+      </c>
+      <c r="B171">
+        <v>688368</v>
+      </c>
+      <c r="C171" t="s">
+        <v>921</v>
+      </c>
+      <c r="D171" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD9762DE-D8FE-4274-B342-42AC9E10A980}">
+  <dimension ref="A1:C40"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1">
+        <v>512000</v>
+      </c>
+      <c r="C1" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>512010</v>
+      </c>
+      <c r="C2" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>512040</v>
+      </c>
+      <c r="C3" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>512070</v>
+      </c>
+      <c r="C4" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>512120</v>
+      </c>
+      <c r="C5" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>512150</v>
+      </c>
+      <c r="C6" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>512170</v>
+      </c>
+      <c r="C7" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>512200</v>
+      </c>
+      <c r="C8" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>512220</v>
+      </c>
+      <c r="C9" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>512290</v>
+      </c>
+      <c r="C10" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>512480</v>
+      </c>
+      <c r="C11" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>512550</v>
+      </c>
+      <c r="C12" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>512560</v>
+      </c>
+      <c r="C13" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>14</v>
+      </c>
+      <c r="B14">
+        <v>512580</v>
+      </c>
+      <c r="C14" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>15</v>
+      </c>
+      <c r="B15">
+        <v>512600</v>
+      </c>
+      <c r="C15" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <v>512660</v>
+      </c>
+      <c r="C16" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>17</v>
+      </c>
+      <c r="B17">
+        <v>512670</v>
+      </c>
+      <c r="C17" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>18</v>
+      </c>
+      <c r="B18">
+        <v>512690</v>
+      </c>
+      <c r="C18" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>19</v>
+      </c>
+      <c r="B19">
+        <v>512700</v>
+      </c>
+      <c r="C19" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>20</v>
+      </c>
+      <c r="B20">
+        <v>512720</v>
+      </c>
+      <c r="C20" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>21</v>
+      </c>
+      <c r="B21">
+        <v>512760</v>
+      </c>
+      <c r="C21" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>22</v>
+      </c>
+      <c r="B22">
+        <v>512880</v>
+      </c>
+      <c r="C22" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>23</v>
+      </c>
+      <c r="B23">
+        <v>512930</v>
+      </c>
+      <c r="C23" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>24</v>
+      </c>
+      <c r="B24">
+        <v>513060</v>
+      </c>
+      <c r="C24" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>25</v>
+      </c>
+      <c r="B25">
+        <v>513330</v>
+      </c>
+      <c r="C25" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>26</v>
+      </c>
+      <c r="B26">
+        <v>515000</v>
+      </c>
+      <c r="C26" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>27</v>
+      </c>
+      <c r="B27">
+        <v>515010</v>
+      </c>
+      <c r="C27" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>28</v>
+      </c>
+      <c r="B28">
+        <v>515020</v>
+      </c>
+      <c r="C28" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>29</v>
+      </c>
+      <c r="B29">
+        <v>515030</v>
+      </c>
+      <c r="C29" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>30</v>
+      </c>
+      <c r="B30">
+        <v>515050</v>
+      </c>
+      <c r="C30" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>31</v>
+      </c>
+      <c r="B31">
+        <v>515060</v>
+      </c>
+      <c r="C31" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>32</v>
+      </c>
+      <c r="B32">
+        <v>515070</v>
+      </c>
+      <c r="C32" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>33</v>
+      </c>
+      <c r="B33">
+        <v>515120</v>
+      </c>
+      <c r="C33" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>34</v>
+      </c>
+      <c r="B34">
+        <v>515170</v>
+      </c>
+      <c r="C34" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>35</v>
+      </c>
+      <c r="B35">
+        <v>515210</v>
+      </c>
+      <c r="C35" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>36</v>
+      </c>
+      <c r="B36">
+        <v>515220</v>
+      </c>
+      <c r="C36" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>37</v>
+      </c>
+      <c r="B37">
+        <v>515230</v>
+      </c>
+      <c r="C37" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>38</v>
+      </c>
+      <c r="B38">
+        <v>515250</v>
+      </c>
+      <c r="C38" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>39</v>
+      </c>
+      <c r="B39">
+        <v>515260</v>
+      </c>
+      <c r="C39" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>40</v>
+      </c>
+      <c r="B40">
+        <v>515950</v>
+      </c>
+      <c r="C40" t="s">
+        <v>957</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/crontab/AMarcket/JGZC.xlsx
+++ b/crontab/AMarcket/JGZC.xlsx
@@ -1,29 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\python\QKL0731\crontab\AMarcket\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{751E2F75-B0C9-4521-9079-50ACE50B4BBF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC6AAD1C-0A8C-492B-8EE2-11AB22600912}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="机构重仓" sheetId="1" r:id="rId1"/>
     <sheet name="天基互联" sheetId="2" r:id="rId2"/>
     <sheet name="基金重仓" sheetId="3" r:id="rId3"/>
     <sheet name="ETF" sheetId="4" r:id="rId4"/>
+    <sheet name="社保、机构新进" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1802" uniqueCount="958">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1822" uniqueCount="958">
   <si>
     <t xml:space="preserve"> 易成新能</t>
   </si>
@@ -3850,8 +3851,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D683"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D300"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -13822,7 +13823,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5ABDB07F-DA89-4CDC-ADA9-BE16EA4E8C3C}">
   <dimension ref="A1:D171"/>
   <sheetViews>
-    <sheetView topLeftCell="A112" workbookViewId="0">
+    <sheetView topLeftCell="A130" workbookViewId="0">
       <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
@@ -16237,8 +16238,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD9762DE-D8FE-4274-B342-42AC9E10A980}">
   <dimension ref="A1:C40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -16692,4 +16693,163 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BA32426-55CD-407A-9A45-01C07A69C2FB}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="11.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1">
+        <v>300080</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>300824</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>600818</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>600223</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>600231</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>56</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>630</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>600291</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>603722</v>
+      </c>
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>600058</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/crontab/AMarcket/JGZC.xlsx
+++ b/crontab/AMarcket/JGZC.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\python\QKL0731\crontab\AMarcket\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC6AAD1C-0A8C-492B-8EE2-11AB22600912}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B86DEB9F-DE71-4B1F-88E1-5A0FBD3EBA08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6480" yWindow="4830" windowWidth="21600" windowHeight="11385" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="机构重仓" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1822" uniqueCount="958">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1832" uniqueCount="982">
   <si>
     <t xml:space="preserve"> 易成新能</t>
   </si>
@@ -2898,13 +2898,110 @@
   </si>
   <si>
     <t>医药龙头ETF</t>
+  </si>
+  <si>
+    <t>中微公司</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 力芯微</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-6-28，上海聚源聚芯集成电路产业股权投资基金中心(有限合伙)，新进</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021/6/30，国家集成电路产业投资基金二期股份有限公司，新进</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>保隆科技</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>金禾实业</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-6-18，全国社保基金四零三组合，新进</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>信邦制药</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>昊志机电</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-4-29， 全国社保基金一零三组合，新进 0.58</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>西部超导</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-6-18，上海高毅资产管理合伙企业(有限合伙)，新进</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>索菲亚</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-6-11，上海高毅资产管理合伙企业(有限合伙)-高毅利伟精选唯实基金，新进 </t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>广电计量</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-5-24，上海高毅资产管理合伙企业(有限合伙)-高毅邻山1号远望基金，新进</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>博创科技</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>高毅</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>集成电路</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>先进制造</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>社保基金</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-4-30，国投招商投资管理有限公司-先进制造产业投资基金二期(有限合伙)，新进
+2021-4-30，上海高毅资产管理合伙企业(有限合伙)-高毅晓峰2号致信基金，新进</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-5-20，全国社保基金六零二组合，新进</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-4-5，上海高毅资产管理合伙企业(有限合伙)-高毅晓峰2号致信基金，新进</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3063,6 +3160,13 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Microsoft YaHei"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="33">
@@ -3490,8 +3594,20 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3855,9 +3971,9 @@
       <selection sqref="A1:D300"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1">
         <v>1</v>
       </c>
@@ -3871,7 +3987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2">
         <v>2</v>
       </c>
@@ -3885,7 +4001,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>3</v>
       </c>
@@ -3899,7 +4015,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>4</v>
       </c>
@@ -3913,7 +4029,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4">
       <c r="A5">
         <v>5</v>
       </c>
@@ -3927,7 +4043,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4">
       <c r="A6">
         <v>6</v>
       </c>
@@ -3941,7 +4057,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4">
       <c r="A7">
         <v>7</v>
       </c>
@@ -3955,7 +4071,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4">
       <c r="A8">
         <v>8</v>
       </c>
@@ -3969,7 +4085,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4">
       <c r="A9">
         <v>9</v>
       </c>
@@ -3983,7 +4099,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4">
       <c r="A10">
         <v>10</v>
       </c>
@@ -3997,7 +4113,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4">
       <c r="A11">
         <v>11</v>
       </c>
@@ -4011,7 +4127,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4">
       <c r="A12">
         <v>12</v>
       </c>
@@ -4025,7 +4141,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4">
       <c r="A13">
         <v>13</v>
       </c>
@@ -4039,7 +4155,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4">
       <c r="A14">
         <v>14</v>
       </c>
@@ -4053,7 +4169,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4">
       <c r="A15">
         <v>15</v>
       </c>
@@ -4067,7 +4183,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4">
       <c r="A16">
         <v>16</v>
       </c>
@@ -4081,7 +4197,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4">
       <c r="A17">
         <v>17</v>
       </c>
@@ -4095,7 +4211,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4">
       <c r="A18">
         <v>18</v>
       </c>
@@ -4109,7 +4225,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4">
       <c r="A19">
         <v>19</v>
       </c>
@@ -4123,7 +4239,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4">
       <c r="A20">
         <v>20</v>
       </c>
@@ -4137,7 +4253,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4">
       <c r="A21">
         <v>21</v>
       </c>
@@ -4151,7 +4267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4">
       <c r="A22">
         <v>22</v>
       </c>
@@ -4165,7 +4281,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4">
       <c r="A23">
         <v>23</v>
       </c>
@@ -4179,7 +4295,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4">
       <c r="A24">
         <v>24</v>
       </c>
@@ -4193,7 +4309,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4">
       <c r="A25">
         <v>25</v>
       </c>
@@ -4207,7 +4323,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4">
       <c r="A26">
         <v>26</v>
       </c>
@@ -4221,7 +4337,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4">
       <c r="A27">
         <v>27</v>
       </c>
@@ -4235,7 +4351,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4">
       <c r="A28">
         <v>28</v>
       </c>
@@ -4249,7 +4365,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4">
       <c r="A29">
         <v>29</v>
       </c>
@@ -4263,7 +4379,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4">
       <c r="A30">
         <v>30</v>
       </c>
@@ -4277,7 +4393,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4">
       <c r="A31">
         <v>31</v>
       </c>
@@ -4291,7 +4407,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4">
       <c r="A32">
         <v>32</v>
       </c>
@@ -4305,7 +4421,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4">
       <c r="A33">
         <v>33</v>
       </c>
@@ -4319,7 +4435,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4">
       <c r="A34">
         <v>34</v>
       </c>
@@ -4333,7 +4449,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4">
       <c r="A35">
         <v>35</v>
       </c>
@@ -4347,7 +4463,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4">
       <c r="A36">
         <v>36</v>
       </c>
@@ -4361,7 +4477,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4">
       <c r="A37">
         <v>37</v>
       </c>
@@ -4375,7 +4491,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4">
       <c r="A38">
         <v>38</v>
       </c>
@@ -4389,7 +4505,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4">
       <c r="A39">
         <v>39</v>
       </c>
@@ -4403,7 +4519,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4">
       <c r="A40">
         <v>40</v>
       </c>
@@ -4417,7 +4533,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4">
       <c r="A41">
         <v>41</v>
       </c>
@@ -4431,7 +4547,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4">
       <c r="A42">
         <v>42</v>
       </c>
@@ -4445,7 +4561,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4">
       <c r="A43">
         <v>43</v>
       </c>
@@ -4459,7 +4575,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4">
       <c r="A44">
         <v>44</v>
       </c>
@@ -4473,7 +4589,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4">
       <c r="A45">
         <v>45</v>
       </c>
@@ -4487,7 +4603,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4">
       <c r="A46">
         <v>46</v>
       </c>
@@ -4501,7 +4617,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4">
       <c r="A47">
         <v>47</v>
       </c>
@@ -4515,7 +4631,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4">
       <c r="A48">
         <v>48</v>
       </c>
@@ -4529,7 +4645,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4">
       <c r="A49">
         <v>49</v>
       </c>
@@ -4543,7 +4659,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4">
       <c r="A50">
         <v>50</v>
       </c>
@@ -4557,7 +4673,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4">
       <c r="A51">
         <v>51</v>
       </c>
@@ -4571,7 +4687,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4">
       <c r="A52">
         <v>52</v>
       </c>
@@ -4585,7 +4701,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4">
       <c r="A53">
         <v>53</v>
       </c>
@@ -4599,7 +4715,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4">
       <c r="A54">
         <v>54</v>
       </c>
@@ -4613,7 +4729,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4">
       <c r="A55">
         <v>55</v>
       </c>
@@ -4627,7 +4743,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4">
       <c r="A56">
         <v>56</v>
       </c>
@@ -4641,7 +4757,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4">
       <c r="A57">
         <v>57</v>
       </c>
@@ -4655,7 +4771,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4">
       <c r="A58">
         <v>58</v>
       </c>
@@ -4669,7 +4785,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4">
       <c r="A59">
         <v>59</v>
       </c>
@@ -4683,7 +4799,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4">
       <c r="A60">
         <v>60</v>
       </c>
@@ -4697,7 +4813,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4">
       <c r="A61">
         <v>61</v>
       </c>
@@ -4711,7 +4827,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:4">
       <c r="A62">
         <v>62</v>
       </c>
@@ -4725,7 +4841,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:4">
       <c r="A63">
         <v>63</v>
       </c>
@@ -4739,7 +4855,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:4">
       <c r="A64">
         <v>64</v>
       </c>
@@ -4753,7 +4869,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4">
       <c r="A65">
         <v>65</v>
       </c>
@@ -4767,7 +4883,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4">
       <c r="A66">
         <v>66</v>
       </c>
@@ -4781,7 +4897,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4">
       <c r="A67">
         <v>67</v>
       </c>
@@ -4795,7 +4911,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4">
       <c r="A68">
         <v>68</v>
       </c>
@@ -4809,7 +4925,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:4">
       <c r="A69">
         <v>69</v>
       </c>
@@ -4823,7 +4939,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:4">
       <c r="A70">
         <v>70</v>
       </c>
@@ -4837,7 +4953,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4">
       <c r="A71">
         <v>71</v>
       </c>
@@ -4851,7 +4967,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:4">
       <c r="A72">
         <v>72</v>
       </c>
@@ -4865,7 +4981,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:4">
       <c r="A73">
         <v>73</v>
       </c>
@@ -4879,7 +4995,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:4">
       <c r="A74">
         <v>74</v>
       </c>
@@ -4893,7 +5009,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:4">
       <c r="A75">
         <v>75</v>
       </c>
@@ -4907,7 +5023,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:4">
       <c r="A76">
         <v>76</v>
       </c>
@@ -4921,7 +5037,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:4">
       <c r="A77">
         <v>77</v>
       </c>
@@ -4935,7 +5051,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:4">
       <c r="A78">
         <v>78</v>
       </c>
@@ -4949,7 +5065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:4">
       <c r="A79">
         <v>79</v>
       </c>
@@ -4963,7 +5079,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:4">
       <c r="A80">
         <v>80</v>
       </c>
@@ -4977,7 +5093,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:4">
       <c r="A81">
         <v>81</v>
       </c>
@@ -4991,7 +5107,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:4">
       <c r="A82">
         <v>82</v>
       </c>
@@ -5005,7 +5121,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:4">
       <c r="A83">
         <v>83</v>
       </c>
@@ -5019,7 +5135,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:4">
       <c r="A84">
         <v>84</v>
       </c>
@@ -5033,7 +5149,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:4">
       <c r="A85">
         <v>85</v>
       </c>
@@ -5047,7 +5163,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:4">
       <c r="A86">
         <v>86</v>
       </c>
@@ -5061,7 +5177,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:4">
       <c r="A87">
         <v>87</v>
       </c>
@@ -5075,7 +5191,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:4">
       <c r="A88">
         <v>88</v>
       </c>
@@ -5089,7 +5205,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:4">
       <c r="A89">
         <v>89</v>
       </c>
@@ -5103,7 +5219,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:4">
       <c r="A90">
         <v>90</v>
       </c>
@@ -5117,7 +5233,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:4">
       <c r="A91">
         <v>91</v>
       </c>
@@ -5131,7 +5247,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:4">
       <c r="A92">
         <v>92</v>
       </c>
@@ -5145,7 +5261,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:4">
       <c r="A93">
         <v>93</v>
       </c>
@@ -5159,7 +5275,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:4">
       <c r="A94">
         <v>94</v>
       </c>
@@ -5173,7 +5289,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:4">
       <c r="A95">
         <v>95</v>
       </c>
@@ -5187,7 +5303,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:4">
       <c r="A96">
         <v>96</v>
       </c>
@@ -5201,7 +5317,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:4">
       <c r="A97">
         <v>97</v>
       </c>
@@ -5215,7 +5331,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:4">
       <c r="A98">
         <v>98</v>
       </c>
@@ -5229,7 +5345,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:4">
       <c r="A99">
         <v>99</v>
       </c>
@@ -5243,7 +5359,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:4">
       <c r="A100">
         <v>100</v>
       </c>
@@ -5257,7 +5373,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:4">
       <c r="A101">
         <v>101</v>
       </c>
@@ -5271,7 +5387,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:4">
       <c r="A102">
         <v>102</v>
       </c>
@@ -5285,7 +5401,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:4">
       <c r="A103">
         <v>103</v>
       </c>
@@ -5299,7 +5415,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:4">
       <c r="A104">
         <v>104</v>
       </c>
@@ -5313,7 +5429,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:4">
       <c r="A105">
         <v>105</v>
       </c>
@@ -5327,7 +5443,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:4">
       <c r="A106">
         <v>106</v>
       </c>
@@ -5341,7 +5457,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:4">
       <c r="A107">
         <v>107</v>
       </c>
@@ -5355,7 +5471,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:4">
       <c r="A108">
         <v>108</v>
       </c>
@@ -5369,7 +5485,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:4">
       <c r="A109">
         <v>109</v>
       </c>
@@ -5383,7 +5499,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:4">
       <c r="A110">
         <v>110</v>
       </c>
@@ -5397,7 +5513,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:4">
       <c r="A111">
         <v>111</v>
       </c>
@@ -5411,7 +5527,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:4">
       <c r="A112">
         <v>112</v>
       </c>
@@ -5425,7 +5541,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:4">
       <c r="A113">
         <v>113</v>
       </c>
@@ -5439,7 +5555,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:4">
       <c r="A114">
         <v>114</v>
       </c>
@@ -5453,7 +5569,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:4">
       <c r="A115">
         <v>115</v>
       </c>
@@ -5467,7 +5583,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:4">
       <c r="A116">
         <v>116</v>
       </c>
@@ -5481,7 +5597,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:4">
       <c r="A117">
         <v>117</v>
       </c>
@@ -5495,7 +5611,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:4">
       <c r="A118">
         <v>118</v>
       </c>
@@ -5509,7 +5625,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:4">
       <c r="A119">
         <v>119</v>
       </c>
@@ -5523,7 +5639,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:4">
       <c r="A120">
         <v>120</v>
       </c>
@@ -5537,7 +5653,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:4">
       <c r="A121">
         <v>121</v>
       </c>
@@ -5551,7 +5667,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:4">
       <c r="A122">
         <v>122</v>
       </c>
@@ -5565,7 +5681,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:4">
       <c r="A123">
         <v>123</v>
       </c>
@@ -5579,7 +5695,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:4">
       <c r="A124">
         <v>124</v>
       </c>
@@ -5593,7 +5709,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:4">
       <c r="A125">
         <v>125</v>
       </c>
@@ -5607,7 +5723,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:4">
       <c r="A126">
         <v>126</v>
       </c>
@@ -5621,7 +5737,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:4">
       <c r="A127">
         <v>127</v>
       </c>
@@ -5635,7 +5751,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:4">
       <c r="A128">
         <v>128</v>
       </c>
@@ -5649,7 +5765,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:4">
       <c r="A129">
         <v>129</v>
       </c>
@@ -5663,7 +5779,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:4">
       <c r="A130">
         <v>130</v>
       </c>
@@ -5677,7 +5793,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:4">
       <c r="A131">
         <v>131</v>
       </c>
@@ -5691,7 +5807,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:4">
       <c r="A132">
         <v>132</v>
       </c>
@@ -5705,7 +5821,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:4">
       <c r="A133">
         <v>133</v>
       </c>
@@ -5719,7 +5835,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:4">
       <c r="A134">
         <v>134</v>
       </c>
@@ -5733,7 +5849,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:4">
       <c r="A135">
         <v>135</v>
       </c>
@@ -5747,7 +5863,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:4">
       <c r="A136">
         <v>136</v>
       </c>
@@ -5761,7 +5877,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:4">
       <c r="A137">
         <v>137</v>
       </c>
@@ -5775,7 +5891,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:4">
       <c r="A138">
         <v>138</v>
       </c>
@@ -5789,7 +5905,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:4">
       <c r="A139">
         <v>139</v>
       </c>
@@ -5803,7 +5919,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:4">
       <c r="A140">
         <v>140</v>
       </c>
@@ -5817,7 +5933,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:4">
       <c r="A141">
         <v>141</v>
       </c>
@@ -5831,7 +5947,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:4">
       <c r="A142">
         <v>142</v>
       </c>
@@ -5845,7 +5961,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:4">
       <c r="A143">
         <v>143</v>
       </c>
@@ -5859,7 +5975,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:4">
       <c r="A144">
         <v>144</v>
       </c>
@@ -5873,7 +5989,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:4">
       <c r="A145">
         <v>145</v>
       </c>
@@ -5887,7 +6003,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:4">
       <c r="A146">
         <v>146</v>
       </c>
@@ -5901,7 +6017,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:4">
       <c r="A147">
         <v>147</v>
       </c>
@@ -5915,7 +6031,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:4">
       <c r="A148">
         <v>148</v>
       </c>
@@ -5929,7 +6045,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:4">
       <c r="A149">
         <v>149</v>
       </c>
@@ -5943,7 +6059,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:4">
       <c r="A150">
         <v>150</v>
       </c>
@@ -5957,7 +6073,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:4">
       <c r="A151">
         <v>151</v>
       </c>
@@ -5971,7 +6087,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:4">
       <c r="A152">
         <v>152</v>
       </c>
@@ -5985,7 +6101,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:4">
       <c r="A153">
         <v>153</v>
       </c>
@@ -5999,7 +6115,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:4">
       <c r="A154">
         <v>154</v>
       </c>
@@ -6013,7 +6129,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:4">
       <c r="A155">
         <v>155</v>
       </c>
@@ -6027,7 +6143,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:4">
       <c r="A156">
         <v>156</v>
       </c>
@@ -6041,7 +6157,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:4">
       <c r="A157">
         <v>157</v>
       </c>
@@ -6055,7 +6171,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:4">
       <c r="A158">
         <v>158</v>
       </c>
@@ -6069,7 +6185,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:4">
       <c r="A159">
         <v>159</v>
       </c>
@@ -6083,7 +6199,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:4">
       <c r="A160">
         <v>160</v>
       </c>
@@ -6097,7 +6213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:4">
       <c r="A161">
         <v>161</v>
       </c>
@@ -6111,7 +6227,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:4">
       <c r="A162">
         <v>162</v>
       </c>
@@ -6125,7 +6241,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:4">
       <c r="A163">
         <v>163</v>
       </c>
@@ -6139,7 +6255,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:4">
       <c r="A164">
         <v>164</v>
       </c>
@@ -6153,7 +6269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:4">
       <c r="A165">
         <v>165</v>
       </c>
@@ -6167,7 +6283,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:4">
       <c r="A166">
         <v>166</v>
       </c>
@@ -6181,7 +6297,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:4">
       <c r="A167">
         <v>167</v>
       </c>
@@ -6195,7 +6311,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:4">
       <c r="A168">
         <v>168</v>
       </c>
@@ -6209,7 +6325,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:4">
       <c r="A169">
         <v>169</v>
       </c>
@@ -6223,7 +6339,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:4">
       <c r="A170">
         <v>170</v>
       </c>
@@ -6237,7 +6353,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:4">
       <c r="A171">
         <v>171</v>
       </c>
@@ -6251,7 +6367,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:4">
       <c r="A172">
         <v>172</v>
       </c>
@@ -6265,7 +6381,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:4">
       <c r="A173">
         <v>173</v>
       </c>
@@ -6279,7 +6395,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:4">
       <c r="A174">
         <v>174</v>
       </c>
@@ -6293,7 +6409,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:4">
       <c r="A175">
         <v>175</v>
       </c>
@@ -6307,7 +6423,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:4">
       <c r="A176">
         <v>176</v>
       </c>
@@ -6321,7 +6437,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:4">
       <c r="A177">
         <v>177</v>
       </c>
@@ -6335,7 +6451,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:4">
       <c r="A178">
         <v>178</v>
       </c>
@@ -6349,7 +6465,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:4">
       <c r="A179">
         <v>179</v>
       </c>
@@ -6363,7 +6479,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:4">
       <c r="A180">
         <v>180</v>
       </c>
@@ -6377,7 +6493,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:4">
       <c r="A181">
         <v>181</v>
       </c>
@@ -6391,7 +6507,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:4">
       <c r="A182">
         <v>182</v>
       </c>
@@ -6405,7 +6521,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:4">
       <c r="A183">
         <v>183</v>
       </c>
@@ -6419,7 +6535,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:4">
       <c r="A184">
         <v>184</v>
       </c>
@@ -6433,7 +6549,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:4">
       <c r="A185">
         <v>185</v>
       </c>
@@ -6447,7 +6563,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:4">
       <c r="A186">
         <v>186</v>
       </c>
@@ -6461,7 +6577,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:4">
       <c r="A187">
         <v>187</v>
       </c>
@@ -6475,7 +6591,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:4">
       <c r="A188">
         <v>188</v>
       </c>
@@ -6489,7 +6605,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:4">
       <c r="A189">
         <v>189</v>
       </c>
@@ -6503,7 +6619,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:4">
       <c r="A190">
         <v>190</v>
       </c>
@@ -6517,7 +6633,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:4">
       <c r="A191">
         <v>191</v>
       </c>
@@ -6531,7 +6647,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:4">
       <c r="A192">
         <v>192</v>
       </c>
@@ -6545,7 +6661,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:4">
       <c r="A193">
         <v>193</v>
       </c>
@@ -6559,7 +6675,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:4">
       <c r="A194">
         <v>194</v>
       </c>
@@ -6573,7 +6689,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:4">
       <c r="A195">
         <v>195</v>
       </c>
@@ -6587,7 +6703,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:4">
       <c r="A196">
         <v>196</v>
       </c>
@@ -6601,7 +6717,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:4">
       <c r="A197">
         <v>197</v>
       </c>
@@ -6615,7 +6731,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:4">
       <c r="A198">
         <v>198</v>
       </c>
@@ -6629,7 +6745,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:4">
       <c r="A199">
         <v>199</v>
       </c>
@@ -6643,7 +6759,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:4">
       <c r="A200">
         <v>200</v>
       </c>
@@ -6657,7 +6773,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:4">
       <c r="A201">
         <v>201</v>
       </c>
@@ -6671,7 +6787,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:4">
       <c r="A202">
         <v>202</v>
       </c>
@@ -6685,7 +6801,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:4">
       <c r="A203">
         <v>203</v>
       </c>
@@ -6699,7 +6815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:4">
       <c r="A204">
         <v>204</v>
       </c>
@@ -6713,7 +6829,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:4">
       <c r="A205">
         <v>205</v>
       </c>
@@ -6727,7 +6843,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:4">
       <c r="A206">
         <v>206</v>
       </c>
@@ -6741,7 +6857,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:4">
       <c r="A207">
         <v>207</v>
       </c>
@@ -6755,7 +6871,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:4">
       <c r="A208">
         <v>208</v>
       </c>
@@ -6769,7 +6885,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:4">
       <c r="A209">
         <v>209</v>
       </c>
@@ -6783,7 +6899,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:4">
       <c r="A210">
         <v>210</v>
       </c>
@@ -6797,7 +6913,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:4">
       <c r="A211">
         <v>211</v>
       </c>
@@ -6811,7 +6927,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:4">
       <c r="A212">
         <v>212</v>
       </c>
@@ -6825,7 +6941,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:4">
       <c r="A213">
         <v>213</v>
       </c>
@@ -6839,7 +6955,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:4">
       <c r="A214">
         <v>214</v>
       </c>
@@ -6853,7 +6969,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:4">
       <c r="A215">
         <v>215</v>
       </c>
@@ -6867,7 +6983,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:4">
       <c r="A216">
         <v>216</v>
       </c>
@@ -6881,7 +6997,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:4">
       <c r="A217">
         <v>217</v>
       </c>
@@ -6895,7 +7011,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:4">
       <c r="A218">
         <v>218</v>
       </c>
@@ -6909,7 +7025,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:4">
       <c r="A219">
         <v>219</v>
       </c>
@@ -6923,7 +7039,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:4">
       <c r="A220">
         <v>220</v>
       </c>
@@ -6937,7 +7053,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:4">
       <c r="A221">
         <v>221</v>
       </c>
@@ -6951,7 +7067,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:4">
       <c r="A222">
         <v>222</v>
       </c>
@@ -6965,7 +7081,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:4">
       <c r="A223">
         <v>223</v>
       </c>
@@ -6979,7 +7095,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:4">
       <c r="A224">
         <v>224</v>
       </c>
@@ -6993,7 +7109,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:4">
       <c r="A225">
         <v>225</v>
       </c>
@@ -7007,7 +7123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:4">
       <c r="A226">
         <v>226</v>
       </c>
@@ -7021,7 +7137,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:4">
       <c r="A227">
         <v>227</v>
       </c>
@@ -7035,7 +7151,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:4">
       <c r="A228">
         <v>228</v>
       </c>
@@ -7049,7 +7165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:4">
       <c r="A229">
         <v>229</v>
       </c>
@@ -7063,7 +7179,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:4">
       <c r="A230">
         <v>230</v>
       </c>
@@ -7077,7 +7193,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:4">
       <c r="A231">
         <v>231</v>
       </c>
@@ -7091,7 +7207,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:4">
       <c r="A232">
         <v>232</v>
       </c>
@@ -7105,7 +7221,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:4">
       <c r="A233">
         <v>233</v>
       </c>
@@ -7119,7 +7235,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:4">
       <c r="A234">
         <v>234</v>
       </c>
@@ -7133,7 +7249,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:4">
       <c r="A235">
         <v>235</v>
       </c>
@@ -7147,7 +7263,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:4">
       <c r="A236">
         <v>236</v>
       </c>
@@ -7161,7 +7277,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:4">
       <c r="A237">
         <v>237</v>
       </c>
@@ -7175,7 +7291,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:4">
       <c r="A238">
         <v>238</v>
       </c>
@@ -7189,7 +7305,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:4">
       <c r="A239">
         <v>239</v>
       </c>
@@ -7203,7 +7319,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:4">
       <c r="A240">
         <v>240</v>
       </c>
@@ -7217,7 +7333,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:4">
       <c r="A241">
         <v>241</v>
       </c>
@@ -7231,7 +7347,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:4">
       <c r="A242">
         <v>242</v>
       </c>
@@ -7245,7 +7361,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:4">
       <c r="A243">
         <v>243</v>
       </c>
@@ -7259,7 +7375,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:4">
       <c r="A244">
         <v>244</v>
       </c>
@@ -7273,7 +7389,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:4">
       <c r="A245">
         <v>245</v>
       </c>
@@ -7287,7 +7403,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:4">
       <c r="A246">
         <v>246</v>
       </c>
@@ -7301,7 +7417,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:4">
       <c r="A247">
         <v>247</v>
       </c>
@@ -7315,7 +7431,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:4">
       <c r="A248">
         <v>248</v>
       </c>
@@ -7329,7 +7445,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:4">
       <c r="A249">
         <v>249</v>
       </c>
@@ -7343,7 +7459,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:4">
       <c r="A250">
         <v>250</v>
       </c>
@@ -7357,7 +7473,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:4">
       <c r="A251">
         <v>251</v>
       </c>
@@ -7371,7 +7487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:4">
       <c r="A252">
         <v>252</v>
       </c>
@@ -7385,7 +7501,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:4">
       <c r="A253">
         <v>253</v>
       </c>
@@ -7399,7 +7515,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:4">
       <c r="A254">
         <v>254</v>
       </c>
@@ -7413,7 +7529,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:4">
       <c r="A255">
         <v>255</v>
       </c>
@@ -7427,7 +7543,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:4">
       <c r="A256">
         <v>256</v>
       </c>
@@ -7441,7 +7557,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:4">
       <c r="A257">
         <v>257</v>
       </c>
@@ -7455,7 +7571,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:4">
       <c r="A258">
         <v>258</v>
       </c>
@@ -7469,7 +7585,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:4">
       <c r="A259">
         <v>259</v>
       </c>
@@ -7483,7 +7599,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:4">
       <c r="A260">
         <v>260</v>
       </c>
@@ -7497,7 +7613,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:4">
       <c r="A261">
         <v>261</v>
       </c>
@@ -7511,7 +7627,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:4">
       <c r="A262">
         <v>262</v>
       </c>
@@ -7525,7 +7641,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:4">
       <c r="A263">
         <v>263</v>
       </c>
@@ -7539,7 +7655,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:4">
       <c r="A264">
         <v>264</v>
       </c>
@@ -7553,7 +7669,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:4">
       <c r="A265">
         <v>265</v>
       </c>
@@ -7567,7 +7683,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:4">
       <c r="A266">
         <v>266</v>
       </c>
@@ -7581,7 +7697,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:4">
       <c r="A267">
         <v>267</v>
       </c>
@@ -7595,7 +7711,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:4">
       <c r="A268">
         <v>268</v>
       </c>
@@ -7609,7 +7725,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:4">
       <c r="A269">
         <v>269</v>
       </c>
@@ -7623,7 +7739,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:4">
       <c r="A270">
         <v>270</v>
       </c>
@@ -7637,7 +7753,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:4">
       <c r="A271">
         <v>271</v>
       </c>
@@ -7651,7 +7767,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:4">
       <c r="A272">
         <v>272</v>
       </c>
@@ -7665,7 +7781,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:4">
       <c r="A273">
         <v>273</v>
       </c>
@@ -7679,7 +7795,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:4">
       <c r="A274">
         <v>274</v>
       </c>
@@ -7693,7 +7809,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:4">
       <c r="A275">
         <v>275</v>
       </c>
@@ -7707,7 +7823,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:4">
       <c r="A276">
         <v>276</v>
       </c>
@@ -7721,7 +7837,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:4">
       <c r="A277">
         <v>277</v>
       </c>
@@ -7735,7 +7851,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:4">
       <c r="A278">
         <v>278</v>
       </c>
@@ -7749,7 +7865,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:4">
       <c r="A279">
         <v>279</v>
       </c>
@@ -7763,7 +7879,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:4">
       <c r="A280">
         <v>280</v>
       </c>
@@ -7777,7 +7893,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:4">
       <c r="A281">
         <v>281</v>
       </c>
@@ -7791,7 +7907,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:4">
       <c r="A282">
         <v>282</v>
       </c>
@@ -7805,7 +7921,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:4">
       <c r="A283">
         <v>283</v>
       </c>
@@ -7819,7 +7935,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:4">
       <c r="A284">
         <v>284</v>
       </c>
@@ -7833,7 +7949,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:4">
       <c r="A285">
         <v>285</v>
       </c>
@@ -7847,7 +7963,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:4">
       <c r="A286">
         <v>286</v>
       </c>
@@ -7861,7 +7977,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:4">
       <c r="A287">
         <v>287</v>
       </c>
@@ -7875,7 +7991,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:4">
       <c r="A288">
         <v>288</v>
       </c>
@@ -7889,7 +8005,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:4">
       <c r="A289">
         <v>289</v>
       </c>
@@ -7903,7 +8019,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:4">
       <c r="A290">
         <v>290</v>
       </c>
@@ -7917,7 +8033,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:4">
       <c r="A291">
         <v>291</v>
       </c>
@@ -7931,7 +8047,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:4">
       <c r="A292">
         <v>292</v>
       </c>
@@ -7945,7 +8061,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:4">
       <c r="A293">
         <v>293</v>
       </c>
@@ -7959,7 +8075,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:4">
       <c r="A294">
         <v>294</v>
       </c>
@@ -7973,7 +8089,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:4">
       <c r="A295">
         <v>295</v>
       </c>
@@ -7987,7 +8103,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:4">
       <c r="A296">
         <v>296</v>
       </c>
@@ -8001,7 +8117,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:4">
       <c r="A297">
         <v>297</v>
       </c>
@@ -8015,7 +8131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:4">
       <c r="A298">
         <v>298</v>
       </c>
@@ -8029,7 +8145,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:4">
       <c r="A299">
         <v>299</v>
       </c>
@@ -8043,7 +8159,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:4">
       <c r="A300">
         <v>300</v>
       </c>
@@ -8057,7 +8173,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:4">
       <c r="A301">
         <v>301</v>
       </c>
@@ -8071,7 +8187,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:4">
       <c r="A302">
         <v>302</v>
       </c>
@@ -8085,7 +8201,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:4">
       <c r="A303">
         <v>303</v>
       </c>
@@ -8099,7 +8215,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:4">
       <c r="A304">
         <v>304</v>
       </c>
@@ -8113,7 +8229,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:4">
       <c r="A305">
         <v>305</v>
       </c>
@@ -8127,7 +8243,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:4">
       <c r="A306">
         <v>306</v>
       </c>
@@ -8141,7 +8257,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:4">
       <c r="A307">
         <v>307</v>
       </c>
@@ -8155,7 +8271,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:4">
       <c r="A308">
         <v>308</v>
       </c>
@@ -8169,7 +8285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:4">
       <c r="A309">
         <v>309</v>
       </c>
@@ -8183,7 +8299,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:4">
       <c r="A310">
         <v>310</v>
       </c>
@@ -8197,7 +8313,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:4">
       <c r="A311">
         <v>311</v>
       </c>
@@ -8211,7 +8327,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:4">
       <c r="A312">
         <v>312</v>
       </c>
@@ -8225,7 +8341,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:4">
       <c r="A313">
         <v>313</v>
       </c>
@@ -8239,7 +8355,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:4">
       <c r="A314">
         <v>314</v>
       </c>
@@ -8253,7 +8369,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:4">
       <c r="A315">
         <v>315</v>
       </c>
@@ -8267,7 +8383,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:4">
       <c r="A316">
         <v>316</v>
       </c>
@@ -8281,7 +8397,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:4">
       <c r="A317">
         <v>317</v>
       </c>
@@ -8295,7 +8411,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:4">
       <c r="A318">
         <v>318</v>
       </c>
@@ -8309,7 +8425,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:4">
       <c r="A319">
         <v>319</v>
       </c>
@@ -8323,7 +8439,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:4">
       <c r="A320">
         <v>320</v>
       </c>
@@ -8337,7 +8453,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:4">
       <c r="A321">
         <v>321</v>
       </c>
@@ -8351,7 +8467,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:4">
       <c r="A322">
         <v>322</v>
       </c>
@@ -8365,7 +8481,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:4">
       <c r="A323">
         <v>323</v>
       </c>
@@ -8379,7 +8495,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:4">
       <c r="A324">
         <v>324</v>
       </c>
@@ -8393,7 +8509,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:4">
       <c r="A325">
         <v>325</v>
       </c>
@@ -8407,7 +8523,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:4">
       <c r="A326">
         <v>326</v>
       </c>
@@ -8421,7 +8537,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:4">
       <c r="A327">
         <v>327</v>
       </c>
@@ -8435,7 +8551,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:4">
       <c r="A328">
         <v>328</v>
       </c>
@@ -8449,7 +8565,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:4">
       <c r="A329">
         <v>329</v>
       </c>
@@ -8463,7 +8579,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:4">
       <c r="A330">
         <v>330</v>
       </c>
@@ -8477,7 +8593,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:4">
       <c r="A331">
         <v>331</v>
       </c>
@@ -8491,7 +8607,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:4">
       <c r="A332">
         <v>332</v>
       </c>
@@ -8505,7 +8621,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:4">
       <c r="A333">
         <v>333</v>
       </c>
@@ -8519,7 +8635,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:4">
       <c r="A334">
         <v>334</v>
       </c>
@@ -8533,7 +8649,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:4">
       <c r="A335">
         <v>335</v>
       </c>
@@ -8547,7 +8663,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:4">
       <c r="A336">
         <v>336</v>
       </c>
@@ -8561,7 +8677,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:4">
       <c r="A337">
         <v>337</v>
       </c>
@@ -8575,7 +8691,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:4">
       <c r="A338">
         <v>338</v>
       </c>
@@ -8589,7 +8705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:4">
       <c r="A339">
         <v>339</v>
       </c>
@@ -8603,7 +8719,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:4">
       <c r="A340">
         <v>340</v>
       </c>
@@ -8617,7 +8733,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:4">
       <c r="A341">
         <v>341</v>
       </c>
@@ -8631,7 +8747,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:4">
       <c r="A342">
         <v>342</v>
       </c>
@@ -8645,7 +8761,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:4">
       <c r="A343">
         <v>343</v>
       </c>
@@ -8659,7 +8775,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="344" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:4">
       <c r="A344">
         <v>344</v>
       </c>
@@ -8673,7 +8789,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:4">
       <c r="A345">
         <v>345</v>
       </c>
@@ -8687,7 +8803,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="346" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:4">
       <c r="A346">
         <v>346</v>
       </c>
@@ -8701,7 +8817,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:4">
       <c r="A347">
         <v>347</v>
       </c>
@@ -8715,7 +8831,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:4">
       <c r="A348">
         <v>348</v>
       </c>
@@ -8729,7 +8845,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:4">
       <c r="A349">
         <v>349</v>
       </c>
@@ -8743,7 +8859,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:4">
       <c r="A350">
         <v>350</v>
       </c>
@@ -8757,7 +8873,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:4">
       <c r="A351">
         <v>351</v>
       </c>
@@ -8771,7 +8887,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:4">
       <c r="A352">
         <v>352</v>
       </c>
@@ -8785,7 +8901,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:4">
       <c r="A353">
         <v>353</v>
       </c>
@@ -8799,7 +8915,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:4">
       <c r="A354">
         <v>354</v>
       </c>
@@ -8813,7 +8929,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:4">
       <c r="A355">
         <v>355</v>
       </c>
@@ -8827,7 +8943,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:4">
       <c r="A356">
         <v>356</v>
       </c>
@@ -8841,7 +8957,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:4">
       <c r="A357">
         <v>357</v>
       </c>
@@ -8855,7 +8971,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="358" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:4">
       <c r="A358">
         <v>358</v>
       </c>
@@ -8869,7 +8985,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:4">
       <c r="A359">
         <v>359</v>
       </c>
@@ -8883,7 +8999,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="360" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:4">
       <c r="A360">
         <v>360</v>
       </c>
@@ -8897,7 +9013,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="361" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:4">
       <c r="A361">
         <v>361</v>
       </c>
@@ -8911,7 +9027,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="362" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:4">
       <c r="A362">
         <v>362</v>
       </c>
@@ -8925,7 +9041,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="363" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:4">
       <c r="A363">
         <v>363</v>
       </c>
@@ -8939,7 +9055,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="364" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:4">
       <c r="A364">
         <v>364</v>
       </c>
@@ -8953,7 +9069,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="365" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:4">
       <c r="A365">
         <v>365</v>
       </c>
@@ -8967,7 +9083,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="366" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:4">
       <c r="A366">
         <v>366</v>
       </c>
@@ -8981,7 +9097,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="367" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:4">
       <c r="A367">
         <v>367</v>
       </c>
@@ -8995,7 +9111,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="368" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:4">
       <c r="A368">
         <v>368</v>
       </c>
@@ -9009,7 +9125,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="369" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:4">
       <c r="A369">
         <v>369</v>
       </c>
@@ -9023,7 +9139,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="370" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:4">
       <c r="A370">
         <v>370</v>
       </c>
@@ -9037,7 +9153,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="371" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:4">
       <c r="A371">
         <v>371</v>
       </c>
@@ -9051,7 +9167,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="372" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:4">
       <c r="A372">
         <v>372</v>
       </c>
@@ -9065,7 +9181,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="373" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:4">
       <c r="A373">
         <v>373</v>
       </c>
@@ -9079,7 +9195,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="374" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:4">
       <c r="A374">
         <v>374</v>
       </c>
@@ -9093,7 +9209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="375" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:4">
       <c r="A375">
         <v>375</v>
       </c>
@@ -9107,7 +9223,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="376" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:4">
       <c r="A376">
         <v>376</v>
       </c>
@@ -9121,7 +9237,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="377" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:4">
       <c r="A377">
         <v>377</v>
       </c>
@@ -9135,7 +9251,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="378" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:4">
       <c r="A378">
         <v>378</v>
       </c>
@@ -9149,7 +9265,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="379" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:4">
       <c r="A379">
         <v>379</v>
       </c>
@@ -9163,7 +9279,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="380" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:4">
       <c r="A380">
         <v>380</v>
       </c>
@@ -9177,7 +9293,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="381" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:4">
       <c r="A381">
         <v>381</v>
       </c>
@@ -9191,7 +9307,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="382" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:4">
       <c r="A382">
         <v>382</v>
       </c>
@@ -9205,7 +9321,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="383" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:4">
       <c r="A383">
         <v>383</v>
       </c>
@@ -9219,7 +9335,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="384" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:4">
       <c r="A384">
         <v>384</v>
       </c>
@@ -9233,7 +9349,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="385" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:4">
       <c r="A385">
         <v>385</v>
       </c>
@@ -9247,7 +9363,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="386" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:4">
       <c r="A386">
         <v>386</v>
       </c>
@@ -9261,7 +9377,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="387" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:4">
       <c r="A387">
         <v>387</v>
       </c>
@@ -9275,7 +9391,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="388" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:4">
       <c r="A388">
         <v>388</v>
       </c>
@@ -9289,7 +9405,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="389" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:4">
       <c r="A389">
         <v>389</v>
       </c>
@@ -9303,7 +9419,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="390" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:4">
       <c r="A390">
         <v>390</v>
       </c>
@@ -9317,7 +9433,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="391" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:4">
       <c r="A391">
         <v>391</v>
       </c>
@@ -9331,7 +9447,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="392" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:4">
       <c r="A392">
         <v>392</v>
       </c>
@@ -9345,7 +9461,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="393" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:4">
       <c r="A393">
         <v>393</v>
       </c>
@@ -9359,7 +9475,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="394" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:4">
       <c r="A394">
         <v>394</v>
       </c>
@@ -9373,7 +9489,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="395" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:4">
       <c r="A395">
         <v>395</v>
       </c>
@@ -9387,7 +9503,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="396" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:4">
       <c r="A396">
         <v>396</v>
       </c>
@@ -9401,7 +9517,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="397" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:4">
       <c r="A397">
         <v>397</v>
       </c>
@@ -9415,7 +9531,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="398" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:4">
       <c r="A398">
         <v>398</v>
       </c>
@@ -9429,7 +9545,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="399" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:4">
       <c r="A399">
         <v>399</v>
       </c>
@@ -9443,7 +9559,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="400" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:4">
       <c r="A400">
         <v>400</v>
       </c>
@@ -9457,7 +9573,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="401" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:4">
       <c r="A401">
         <v>401</v>
       </c>
@@ -9471,7 +9587,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="402" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:4">
       <c r="A402">
         <v>402</v>
       </c>
@@ -9485,7 +9601,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="403" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:4">
       <c r="A403">
         <v>403</v>
       </c>
@@ -9499,7 +9615,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="404" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:4">
       <c r="A404">
         <v>404</v>
       </c>
@@ -9513,7 +9629,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="405" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:4">
       <c r="A405">
         <v>405</v>
       </c>
@@ -9527,7 +9643,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="406" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:4">
       <c r="A406">
         <v>406</v>
       </c>
@@ -9541,7 +9657,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="407" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:4">
       <c r="A407">
         <v>407</v>
       </c>
@@ -9555,7 +9671,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="408" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:4">
       <c r="A408">
         <v>408</v>
       </c>
@@ -9569,7 +9685,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="409" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:4">
       <c r="A409">
         <v>409</v>
       </c>
@@ -9583,7 +9699,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="410" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:4">
       <c r="A410">
         <v>410</v>
       </c>
@@ -9597,7 +9713,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="411" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:4">
       <c r="A411">
         <v>411</v>
       </c>
@@ -9611,7 +9727,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="412" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:4">
       <c r="A412">
         <v>412</v>
       </c>
@@ -9625,7 +9741,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="413" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:4">
       <c r="A413">
         <v>413</v>
       </c>
@@ -9639,7 +9755,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="414" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:4">
       <c r="A414">
         <v>414</v>
       </c>
@@ -9653,7 +9769,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="415" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:4">
       <c r="A415">
         <v>415</v>
       </c>
@@ -9667,7 +9783,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="416" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:4">
       <c r="A416">
         <v>416</v>
       </c>
@@ -9681,7 +9797,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="417" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:4">
       <c r="A417">
         <v>417</v>
       </c>
@@ -9695,7 +9811,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="418" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:4">
       <c r="A418">
         <v>418</v>
       </c>
@@ -9709,7 +9825,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="419" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:4">
       <c r="A419">
         <v>419</v>
       </c>
@@ -9723,7 +9839,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="420" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:4">
       <c r="A420">
         <v>420</v>
       </c>
@@ -9737,7 +9853,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="421" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:4">
       <c r="A421">
         <v>421</v>
       </c>
@@ -9751,7 +9867,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="422" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:4">
       <c r="A422">
         <v>422</v>
       </c>
@@ -9765,7 +9881,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="423" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:4">
       <c r="A423">
         <v>423</v>
       </c>
@@ -9779,7 +9895,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="424" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:4">
       <c r="A424">
         <v>424</v>
       </c>
@@ -9793,7 +9909,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="425" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:4">
       <c r="A425">
         <v>425</v>
       </c>
@@ -9807,7 +9923,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="426" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:4">
       <c r="A426">
         <v>426</v>
       </c>
@@ -9821,7 +9937,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="427" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:4">
       <c r="A427">
         <v>427</v>
       </c>
@@ -9835,7 +9951,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="428" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:4">
       <c r="A428">
         <v>428</v>
       </c>
@@ -9849,7 +9965,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="429" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:4">
       <c r="A429">
         <v>429</v>
       </c>
@@ -9863,7 +9979,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="430" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:4">
       <c r="A430">
         <v>430</v>
       </c>
@@ -9877,7 +9993,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="431" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:4">
       <c r="A431">
         <v>431</v>
       </c>
@@ -9891,7 +10007,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="432" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:4">
       <c r="A432">
         <v>432</v>
       </c>
@@ -9905,7 +10021,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="433" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:4">
       <c r="A433">
         <v>433</v>
       </c>
@@ -9919,7 +10035,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="434" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:4">
       <c r="A434">
         <v>434</v>
       </c>
@@ -9933,7 +10049,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="435" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:4">
       <c r="A435">
         <v>435</v>
       </c>
@@ -9947,7 +10063,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="436" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:4">
       <c r="A436">
         <v>436</v>
       </c>
@@ -9961,7 +10077,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="437" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:4">
       <c r="A437">
         <v>437</v>
       </c>
@@ -9975,7 +10091,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="438" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:4">
       <c r="A438">
         <v>438</v>
       </c>
@@ -9989,7 +10105,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="439" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:4">
       <c r="A439">
         <v>439</v>
       </c>
@@ -10003,7 +10119,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="440" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:4">
       <c r="A440">
         <v>440</v>
       </c>
@@ -10017,7 +10133,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="441" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:4">
       <c r="A441">
         <v>441</v>
       </c>
@@ -10031,7 +10147,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="442" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:4">
       <c r="A442">
         <v>442</v>
       </c>
@@ -10045,7 +10161,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="443" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:4">
       <c r="A443">
         <v>443</v>
       </c>
@@ -10059,7 +10175,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="444" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:4">
       <c r="A444">
         <v>444</v>
       </c>
@@ -10073,7 +10189,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="445" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:4">
       <c r="A445">
         <v>445</v>
       </c>
@@ -10087,7 +10203,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="446" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:4">
       <c r="A446">
         <v>446</v>
       </c>
@@ -10101,7 +10217,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="447" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:4">
       <c r="A447">
         <v>447</v>
       </c>
@@ -10115,7 +10231,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="448" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:4">
       <c r="A448">
         <v>448</v>
       </c>
@@ -10129,7 +10245,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="449" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:4">
       <c r="A449">
         <v>449</v>
       </c>
@@ -10143,7 +10259,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="450" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:4">
       <c r="A450">
         <v>450</v>
       </c>
@@ -10157,7 +10273,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="451" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:4">
       <c r="A451">
         <v>451</v>
       </c>
@@ -10171,7 +10287,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="452" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:4">
       <c r="A452">
         <v>452</v>
       </c>
@@ -10185,7 +10301,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="453" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:4">
       <c r="A453">
         <v>453</v>
       </c>
@@ -10199,7 +10315,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="454" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:4">
       <c r="A454">
         <v>454</v>
       </c>
@@ -10213,7 +10329,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="455" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:4">
       <c r="A455">
         <v>455</v>
       </c>
@@ -10227,7 +10343,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="456" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:4">
       <c r="A456">
         <v>456</v>
       </c>
@@ -10241,7 +10357,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="457" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:4">
       <c r="A457">
         <v>457</v>
       </c>
@@ -10255,7 +10371,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="458" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:4">
       <c r="A458">
         <v>458</v>
       </c>
@@ -10269,7 +10385,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="459" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:4">
       <c r="A459">
         <v>459</v>
       </c>
@@ -10283,7 +10399,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="460" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:4">
       <c r="A460">
         <v>460</v>
       </c>
@@ -10297,7 +10413,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="461" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:4">
       <c r="A461">
         <v>461</v>
       </c>
@@ -10311,7 +10427,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="462" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:4">
       <c r="A462">
         <v>462</v>
       </c>
@@ -10325,7 +10441,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="463" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:4">
       <c r="A463">
         <v>463</v>
       </c>
@@ -10339,7 +10455,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="464" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:4">
       <c r="A464">
         <v>464</v>
       </c>
@@ -10353,7 +10469,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="465" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:4">
       <c r="A465">
         <v>465</v>
       </c>
@@ -10367,7 +10483,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="466" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:4">
       <c r="A466">
         <v>466</v>
       </c>
@@ -10381,7 +10497,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="467" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:4">
       <c r="A467">
         <v>467</v>
       </c>
@@ -10395,7 +10511,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="468" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:4">
       <c r="A468">
         <v>468</v>
       </c>
@@ -10409,7 +10525,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="469" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:4">
       <c r="A469">
         <v>469</v>
       </c>
@@ -10423,7 +10539,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="470" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:4">
       <c r="A470">
         <v>470</v>
       </c>
@@ -10437,7 +10553,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="471" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:4">
       <c r="A471">
         <v>471</v>
       </c>
@@ -10451,7 +10567,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="472" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:4">
       <c r="A472">
         <v>472</v>
       </c>
@@ -10465,7 +10581,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="473" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:4">
       <c r="A473">
         <v>473</v>
       </c>
@@ -10479,7 +10595,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="474" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:4">
       <c r="A474">
         <v>474</v>
       </c>
@@ -10493,7 +10609,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="475" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:4">
       <c r="A475">
         <v>475</v>
       </c>
@@ -10507,7 +10623,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="476" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:4">
       <c r="A476">
         <v>476</v>
       </c>
@@ -10521,7 +10637,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="477" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:4">
       <c r="A477">
         <v>477</v>
       </c>
@@ -10535,7 +10651,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="478" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:4">
       <c r="A478">
         <v>478</v>
       </c>
@@ -10549,7 +10665,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="479" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:4">
       <c r="A479">
         <v>479</v>
       </c>
@@ -10563,7 +10679,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="480" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:4">
       <c r="A480">
         <v>480</v>
       </c>
@@ -10577,7 +10693,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="481" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:4">
       <c r="A481">
         <v>481</v>
       </c>
@@ -10591,7 +10707,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="482" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:4">
       <c r="A482">
         <v>482</v>
       </c>
@@ -10605,7 +10721,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="483" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:4">
       <c r="A483">
         <v>483</v>
       </c>
@@ -10619,7 +10735,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="484" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:4">
       <c r="A484">
         <v>484</v>
       </c>
@@ -10633,7 +10749,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="485" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:4">
       <c r="A485">
         <v>485</v>
       </c>
@@ -10647,7 +10763,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="486" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:4">
       <c r="A486">
         <v>486</v>
       </c>
@@ -10661,7 +10777,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="487" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:4">
       <c r="A487">
         <v>487</v>
       </c>
@@ -10675,7 +10791,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="488" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:4">
       <c r="A488">
         <v>488</v>
       </c>
@@ -10689,7 +10805,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="489" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:4">
       <c r="A489">
         <v>489</v>
       </c>
@@ -10703,7 +10819,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="490" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:4">
       <c r="A490">
         <v>490</v>
       </c>
@@ -10717,7 +10833,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="491" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:4">
       <c r="A491">
         <v>491</v>
       </c>
@@ -10731,7 +10847,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="492" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:4">
       <c r="A492">
         <v>492</v>
       </c>
@@ -10745,7 +10861,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="493" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:4">
       <c r="A493">
         <v>493</v>
       </c>
@@ -10759,7 +10875,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="494" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:4">
       <c r="A494">
         <v>494</v>
       </c>
@@ -10773,7 +10889,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="495" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:4">
       <c r="A495">
         <v>495</v>
       </c>
@@ -10787,7 +10903,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="496" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:4">
       <c r="A496">
         <v>496</v>
       </c>
@@ -10801,7 +10917,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="497" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:4">
       <c r="A497">
         <v>497</v>
       </c>
@@ -10815,7 +10931,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="498" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:4">
       <c r="A498">
         <v>498</v>
       </c>
@@ -10829,7 +10945,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="499" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:4">
       <c r="A499">
         <v>499</v>
       </c>
@@ -10843,7 +10959,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="500" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:4">
       <c r="A500">
         <v>500</v>
       </c>
@@ -10857,7 +10973,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="501" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:4">
       <c r="A501">
         <v>501</v>
       </c>
@@ -10871,7 +10987,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="502" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:4">
       <c r="A502">
         <v>502</v>
       </c>
@@ -10885,7 +11001,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="503" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:4">
       <c r="A503">
         <v>503</v>
       </c>
@@ -10899,7 +11015,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="504" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:4">
       <c r="A504">
         <v>504</v>
       </c>
@@ -10913,7 +11029,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="505" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:4">
       <c r="A505">
         <v>505</v>
       </c>
@@ -10927,7 +11043,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="506" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:4">
       <c r="A506">
         <v>506</v>
       </c>
@@ -10941,7 +11057,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="507" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:4">
       <c r="A507">
         <v>507</v>
       </c>
@@ -10955,7 +11071,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="508" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:4">
       <c r="A508">
         <v>508</v>
       </c>
@@ -10969,7 +11085,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="509" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:4">
       <c r="A509">
         <v>509</v>
       </c>
@@ -10983,7 +11099,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="510" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:4">
       <c r="A510">
         <v>510</v>
       </c>
@@ -10997,7 +11113,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="511" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:4">
       <c r="A511">
         <v>511</v>
       </c>
@@ -11011,7 +11127,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="512" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:4">
       <c r="A512">
         <v>512</v>
       </c>
@@ -11025,7 +11141,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="513" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:4">
       <c r="A513">
         <v>513</v>
       </c>
@@ -11039,7 +11155,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="514" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:4">
       <c r="A514">
         <v>514</v>
       </c>
@@ -11053,7 +11169,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="515" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:4">
       <c r="A515">
         <v>515</v>
       </c>
@@ -11067,7 +11183,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="516" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:4">
       <c r="A516">
         <v>516</v>
       </c>
@@ -11081,7 +11197,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="517" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:4">
       <c r="A517">
         <v>517</v>
       </c>
@@ -11095,7 +11211,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="518" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:4">
       <c r="A518">
         <v>518</v>
       </c>
@@ -11109,7 +11225,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="519" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:4">
       <c r="A519">
         <v>519</v>
       </c>
@@ -11123,7 +11239,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="520" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:4">
       <c r="A520">
         <v>520</v>
       </c>
@@ -11137,7 +11253,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="521" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:4">
       <c r="A521">
         <v>521</v>
       </c>
@@ -11151,7 +11267,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="522" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:4">
       <c r="A522">
         <v>522</v>
       </c>
@@ -11165,7 +11281,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="523" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:4">
       <c r="A523">
         <v>523</v>
       </c>
@@ -11179,7 +11295,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="524" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:4">
       <c r="A524">
         <v>524</v>
       </c>
@@ -11193,7 +11309,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="525" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:4">
       <c r="A525">
         <v>525</v>
       </c>
@@ -11207,7 +11323,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="526" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:4">
       <c r="A526">
         <v>526</v>
       </c>
@@ -11221,7 +11337,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="527" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:4">
       <c r="A527">
         <v>527</v>
       </c>
@@ -11235,7 +11351,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="528" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:4">
       <c r="A528">
         <v>528</v>
       </c>
@@ -11249,7 +11365,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="529" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:4">
       <c r="A529">
         <v>529</v>
       </c>
@@ -11263,7 +11379,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="530" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:4">
       <c r="A530">
         <v>530</v>
       </c>
@@ -11277,7 +11393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="531" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:4">
       <c r="A531">
         <v>531</v>
       </c>
@@ -11291,7 +11407,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="532" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:4">
       <c r="A532">
         <v>532</v>
       </c>
@@ -11305,7 +11421,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="533" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:4">
       <c r="A533">
         <v>533</v>
       </c>
@@ -11319,7 +11435,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="534" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:4">
       <c r="A534">
         <v>534</v>
       </c>
@@ -11333,7 +11449,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="535" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:4">
       <c r="A535">
         <v>535</v>
       </c>
@@ -11347,7 +11463,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="536" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:4">
       <c r="A536">
         <v>536</v>
       </c>
@@ -11361,7 +11477,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="537" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:4">
       <c r="A537">
         <v>537</v>
       </c>
@@ -11375,7 +11491,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="538" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:4">
       <c r="A538">
         <v>538</v>
       </c>
@@ -11389,7 +11505,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="539" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:4">
       <c r="A539">
         <v>539</v>
       </c>
@@ -11403,7 +11519,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="540" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:4">
       <c r="A540">
         <v>540</v>
       </c>
@@ -11417,7 +11533,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="541" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:4">
       <c r="A541">
         <v>541</v>
       </c>
@@ -11431,7 +11547,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="542" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:4">
       <c r="A542">
         <v>542</v>
       </c>
@@ -11445,7 +11561,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="543" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:4">
       <c r="A543">
         <v>543</v>
       </c>
@@ -11459,7 +11575,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="544" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:4">
       <c r="A544">
         <v>544</v>
       </c>
@@ -11473,7 +11589,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="545" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:4">
       <c r="A545">
         <v>545</v>
       </c>
@@ -11487,7 +11603,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="546" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:4">
       <c r="A546">
         <v>546</v>
       </c>
@@ -11501,7 +11617,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="547" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:4">
       <c r="A547">
         <v>547</v>
       </c>
@@ -11515,7 +11631,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="548" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:4">
       <c r="A548">
         <v>548</v>
       </c>
@@ -11529,7 +11645,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="549" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:4">
       <c r="A549">
         <v>549</v>
       </c>
@@ -11543,7 +11659,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="550" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:4">
       <c r="A550">
         <v>550</v>
       </c>
@@ -11557,7 +11673,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="551" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:4">
       <c r="A551">
         <v>551</v>
       </c>
@@ -11571,7 +11687,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="552" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:4">
       <c r="A552">
         <v>552</v>
       </c>
@@ -11585,7 +11701,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="553" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:4">
       <c r="A553">
         <v>553</v>
       </c>
@@ -11599,7 +11715,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="554" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:4">
       <c r="A554">
         <v>554</v>
       </c>
@@ -11613,7 +11729,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="555" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:4">
       <c r="A555">
         <v>555</v>
       </c>
@@ -11627,7 +11743,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="556" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:4">
       <c r="A556">
         <v>556</v>
       </c>
@@ -11641,7 +11757,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="557" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:4">
       <c r="A557">
         <v>557</v>
       </c>
@@ -11655,7 +11771,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="558" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:4">
       <c r="A558">
         <v>558</v>
       </c>
@@ -11669,7 +11785,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="559" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:4">
       <c r="A559">
         <v>559</v>
       </c>
@@ -11683,7 +11799,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="560" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:4">
       <c r="A560">
         <v>560</v>
       </c>
@@ -11697,7 +11813,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="561" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:4">
       <c r="A561">
         <v>561</v>
       </c>
@@ -11711,7 +11827,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="562" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:4">
       <c r="A562">
         <v>562</v>
       </c>
@@ -11725,7 +11841,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="563" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:4">
       <c r="A563">
         <v>563</v>
       </c>
@@ -11739,7 +11855,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="564" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:4">
       <c r="A564">
         <v>564</v>
       </c>
@@ -11753,7 +11869,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="565" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:4">
       <c r="A565">
         <v>565</v>
       </c>
@@ -11767,7 +11883,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="566" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:4">
       <c r="A566">
         <v>566</v>
       </c>
@@ -11781,7 +11897,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="567" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:4">
       <c r="A567">
         <v>567</v>
       </c>
@@ -11795,7 +11911,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="568" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:4">
       <c r="A568">
         <v>568</v>
       </c>
@@ -11809,7 +11925,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="569" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:4">
       <c r="A569">
         <v>569</v>
       </c>
@@ -11823,7 +11939,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="570" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:4">
       <c r="A570">
         <v>570</v>
       </c>
@@ -11837,7 +11953,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="571" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:4">
       <c r="A571">
         <v>571</v>
       </c>
@@ -11851,7 +11967,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="572" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:4">
       <c r="A572">
         <v>572</v>
       </c>
@@ -11865,7 +11981,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="573" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:4">
       <c r="A573">
         <v>573</v>
       </c>
@@ -11879,7 +11995,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="574" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:4">
       <c r="A574">
         <v>574</v>
       </c>
@@ -11893,7 +12009,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="575" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:4">
       <c r="A575">
         <v>575</v>
       </c>
@@ -11907,7 +12023,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="576" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:4">
       <c r="A576">
         <v>576</v>
       </c>
@@ -11921,7 +12037,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="577" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:4">
       <c r="A577">
         <v>577</v>
       </c>
@@ -11935,7 +12051,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="578" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:4">
       <c r="A578">
         <v>578</v>
       </c>
@@ -11949,7 +12065,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="579" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:4">
       <c r="A579">
         <v>579</v>
       </c>
@@ -11963,7 +12079,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="580" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:4">
       <c r="A580">
         <v>580</v>
       </c>
@@ -11977,7 +12093,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="581" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:4">
       <c r="A581">
         <v>581</v>
       </c>
@@ -11991,7 +12107,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="582" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:4">
       <c r="A582">
         <v>582</v>
       </c>
@@ -12005,7 +12121,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="583" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:4">
       <c r="A583">
         <v>583</v>
       </c>
@@ -12019,7 +12135,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="584" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:4">
       <c r="A584">
         <v>584</v>
       </c>
@@ -12033,7 +12149,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="585" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:4">
       <c r="A585">
         <v>585</v>
       </c>
@@ -12047,7 +12163,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="586" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:4">
       <c r="A586">
         <v>586</v>
       </c>
@@ -12061,7 +12177,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="587" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:4">
       <c r="A587">
         <v>587</v>
       </c>
@@ -12075,7 +12191,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="588" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:4">
       <c r="A588">
         <v>588</v>
       </c>
@@ -12089,7 +12205,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="589" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:4">
       <c r="A589">
         <v>589</v>
       </c>
@@ -12103,7 +12219,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="590" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:4">
       <c r="A590">
         <v>590</v>
       </c>
@@ -12117,7 +12233,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="591" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:4">
       <c r="A591">
         <v>591</v>
       </c>
@@ -12131,7 +12247,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="592" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:4">
       <c r="A592">
         <v>592</v>
       </c>
@@ -12145,7 +12261,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="593" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:4">
       <c r="A593">
         <v>593</v>
       </c>
@@ -12159,7 +12275,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="594" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:4">
       <c r="A594">
         <v>594</v>
       </c>
@@ -12173,7 +12289,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="595" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:4">
       <c r="A595">
         <v>595</v>
       </c>
@@ -12187,7 +12303,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="596" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:4">
       <c r="A596">
         <v>596</v>
       </c>
@@ -12201,7 +12317,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="597" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:4">
       <c r="A597">
         <v>597</v>
       </c>
@@ -12215,7 +12331,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="598" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:4">
       <c r="A598">
         <v>598</v>
       </c>
@@ -12229,7 +12345,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="599" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:4">
       <c r="A599">
         <v>599</v>
       </c>
@@ -12243,7 +12359,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="600" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:4">
       <c r="A600">
         <v>600</v>
       </c>
@@ -12257,7 +12373,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="601" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:4">
       <c r="A601">
         <v>601</v>
       </c>
@@ -12271,7 +12387,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="602" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:4">
       <c r="A602">
         <v>602</v>
       </c>
@@ -12285,7 +12401,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="603" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:4">
       <c r="A603">
         <v>603</v>
       </c>
@@ -12299,7 +12415,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="604" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:4">
       <c r="A604">
         <v>604</v>
       </c>
@@ -12313,7 +12429,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="605" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:4">
       <c r="A605">
         <v>605</v>
       </c>
@@ -12327,7 +12443,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="606" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:4">
       <c r="A606">
         <v>606</v>
       </c>
@@ -12341,7 +12457,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="607" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:4">
       <c r="A607">
         <v>607</v>
       </c>
@@ -12355,7 +12471,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="608" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:4">
       <c r="A608">
         <v>608</v>
       </c>
@@ -12369,7 +12485,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="609" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:4">
       <c r="A609">
         <v>609</v>
       </c>
@@ -12383,7 +12499,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="610" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:4">
       <c r="A610">
         <v>610</v>
       </c>
@@ -12397,7 +12513,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="611" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:4">
       <c r="A611">
         <v>611</v>
       </c>
@@ -12411,7 +12527,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="612" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:4">
       <c r="A612">
         <v>612</v>
       </c>
@@ -12425,7 +12541,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="613" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:4">
       <c r="A613">
         <v>613</v>
       </c>
@@ -12439,7 +12555,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="614" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:4">
       <c r="A614">
         <v>614</v>
       </c>
@@ -12453,7 +12569,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="615" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:4">
       <c r="A615">
         <v>615</v>
       </c>
@@ -12467,7 +12583,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="616" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:4">
       <c r="A616">
         <v>616</v>
       </c>
@@ -12481,7 +12597,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="617" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:4">
       <c r="A617">
         <v>617</v>
       </c>
@@ -12495,7 +12611,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="618" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:4">
       <c r="A618">
         <v>618</v>
       </c>
@@ -12509,7 +12625,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="619" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:4">
       <c r="A619">
         <v>619</v>
       </c>
@@ -12523,7 +12639,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="620" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:4">
       <c r="A620">
         <v>620</v>
       </c>
@@ -12537,7 +12653,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="621" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:4">
       <c r="A621">
         <v>621</v>
       </c>
@@ -12551,7 +12667,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="622" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:4">
       <c r="A622">
         <v>622</v>
       </c>
@@ -12565,7 +12681,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="623" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:4">
       <c r="A623">
         <v>623</v>
       </c>
@@ -12579,7 +12695,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="624" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:4">
       <c r="A624">
         <v>624</v>
       </c>
@@ -12593,7 +12709,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="625" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:4">
       <c r="A625">
         <v>625</v>
       </c>
@@ -12607,7 +12723,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="626" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="626" spans="1:4">
       <c r="A626">
         <v>626</v>
       </c>
@@ -12621,7 +12737,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="627" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:4">
       <c r="A627">
         <v>627</v>
       </c>
@@ -12635,7 +12751,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="628" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:4">
       <c r="A628">
         <v>628</v>
       </c>
@@ -12649,7 +12765,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="629" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:4">
       <c r="A629">
         <v>629</v>
       </c>
@@ -12663,7 +12779,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="630" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="630" spans="1:4">
       <c r="A630">
         <v>630</v>
       </c>
@@ -12677,7 +12793,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="631" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:4">
       <c r="A631">
         <v>631</v>
       </c>
@@ -12691,7 +12807,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="632" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="632" spans="1:4">
       <c r="A632">
         <v>632</v>
       </c>
@@ -12705,7 +12821,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="633" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="633" spans="1:4">
       <c r="A633">
         <v>633</v>
       </c>
@@ -12719,7 +12835,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="634" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="634" spans="1:4">
       <c r="A634">
         <v>634</v>
       </c>
@@ -12733,7 +12849,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="635" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="635" spans="1:4">
       <c r="A635">
         <v>635</v>
       </c>
@@ -12747,7 +12863,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="636" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="636" spans="1:4">
       <c r="A636">
         <v>636</v>
       </c>
@@ -12761,7 +12877,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="637" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="637" spans="1:4">
       <c r="A637">
         <v>637</v>
       </c>
@@ -12775,7 +12891,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="638" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="638" spans="1:4">
       <c r="A638">
         <v>638</v>
       </c>
@@ -12789,7 +12905,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="639" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="639" spans="1:4">
       <c r="A639">
         <v>639</v>
       </c>
@@ -12803,7 +12919,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="640" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="640" spans="1:4">
       <c r="A640">
         <v>640</v>
       </c>
@@ -12817,7 +12933,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="641" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="641" spans="1:4">
       <c r="A641">
         <v>641</v>
       </c>
@@ -12831,7 +12947,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="642" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="642" spans="1:4">
       <c r="A642">
         <v>642</v>
       </c>
@@ -12845,7 +12961,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="643" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="643" spans="1:4">
       <c r="A643">
         <v>643</v>
       </c>
@@ -12859,7 +12975,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="644" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="644" spans="1:4">
       <c r="A644">
         <v>644</v>
       </c>
@@ -12873,7 +12989,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="645" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="645" spans="1:4">
       <c r="A645">
         <v>645</v>
       </c>
@@ -12887,7 +13003,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="646" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="646" spans="1:4">
       <c r="A646">
         <v>646</v>
       </c>
@@ -12901,7 +13017,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="647" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="647" spans="1:4">
       <c r="A647">
         <v>647</v>
       </c>
@@ -12915,7 +13031,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="648" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="648" spans="1:4">
       <c r="A648">
         <v>648</v>
       </c>
@@ -12929,7 +13045,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="649" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="649" spans="1:4">
       <c r="A649">
         <v>649</v>
       </c>
@@ -12943,7 +13059,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="650" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="650" spans="1:4">
       <c r="A650">
         <v>650</v>
       </c>
@@ -12957,7 +13073,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="651" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="651" spans="1:4">
       <c r="A651">
         <v>651</v>
       </c>
@@ -12971,7 +13087,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="652" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="652" spans="1:4">
       <c r="A652">
         <v>652</v>
       </c>
@@ -12985,7 +13101,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="653" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="653" spans="1:4">
       <c r="A653">
         <v>653</v>
       </c>
@@ -12999,7 +13115,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="654" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="654" spans="1:4">
       <c r="A654">
         <v>654</v>
       </c>
@@ -13013,7 +13129,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="655" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="655" spans="1:4">
       <c r="A655">
         <v>655</v>
       </c>
@@ -13027,7 +13143,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="656" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="656" spans="1:4">
       <c r="A656">
         <v>656</v>
       </c>
@@ -13041,7 +13157,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="657" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="657" spans="1:4">
       <c r="A657">
         <v>657</v>
       </c>
@@ -13055,7 +13171,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="658" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="658" spans="1:4">
       <c r="A658">
         <v>658</v>
       </c>
@@ -13069,7 +13185,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="659" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="659" spans="1:4">
       <c r="A659">
         <v>659</v>
       </c>
@@ -13083,7 +13199,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="660" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="660" spans="1:4">
       <c r="A660">
         <v>660</v>
       </c>
@@ -13097,7 +13213,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="661" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="661" spans="1:4">
       <c r="A661">
         <v>661</v>
       </c>
@@ -13111,7 +13227,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="662" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="662" spans="1:4">
       <c r="A662">
         <v>662</v>
       </c>
@@ -13125,7 +13241,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="663" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="663" spans="1:4">
       <c r="A663">
         <v>663</v>
       </c>
@@ -13139,7 +13255,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="664" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="664" spans="1:4">
       <c r="A664">
         <v>664</v>
       </c>
@@ -13153,7 +13269,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="665" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="665" spans="1:4">
       <c r="A665">
         <v>665</v>
       </c>
@@ -13167,7 +13283,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="666" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="666" spans="1:4">
       <c r="A666">
         <v>666</v>
       </c>
@@ -13181,7 +13297,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="667" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="667" spans="1:4">
       <c r="A667">
         <v>667</v>
       </c>
@@ -13195,7 +13311,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="668" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="668" spans="1:4">
       <c r="A668">
         <v>668</v>
       </c>
@@ -13209,7 +13325,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="669" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="669" spans="1:4">
       <c r="A669">
         <v>669</v>
       </c>
@@ -13223,7 +13339,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="670" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="670" spans="1:4">
       <c r="A670">
         <v>670</v>
       </c>
@@ -13237,7 +13353,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="671" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="671" spans="1:4">
       <c r="A671">
         <v>671</v>
       </c>
@@ -13251,7 +13367,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="672" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="672" spans="1:4">
       <c r="A672">
         <v>672</v>
       </c>
@@ -13265,7 +13381,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="673" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="673" spans="1:4">
       <c r="A673">
         <v>673</v>
       </c>
@@ -13279,7 +13395,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="674" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="674" spans="1:4">
       <c r="A674">
         <v>674</v>
       </c>
@@ -13293,7 +13409,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="675" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="675" spans="1:4">
       <c r="A675">
         <v>675</v>
       </c>
@@ -13307,7 +13423,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="676" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="676" spans="1:4">
       <c r="A676">
         <v>676</v>
       </c>
@@ -13321,7 +13437,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="677" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="677" spans="1:4">
       <c r="A677">
         <v>677</v>
       </c>
@@ -13335,7 +13451,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="678" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="678" spans="1:4">
       <c r="A678">
         <v>678</v>
       </c>
@@ -13349,7 +13465,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="679" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="679" spans="1:4">
       <c r="A679">
         <v>679</v>
       </c>
@@ -13363,7 +13479,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="680" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="680" spans="1:4">
       <c r="A680">
         <v>680</v>
       </c>
@@ -13377,7 +13493,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="681" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="681" spans="1:4">
       <c r="A681">
         <v>681</v>
       </c>
@@ -13391,7 +13507,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="682" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="682" spans="1:4">
       <c r="A682">
         <v>682</v>
       </c>
@@ -13405,7 +13521,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="683" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="683" spans="1:4">
       <c r="A683">
         <v>683</v>
       </c>
@@ -13433,9 +13549,9 @@
       <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1">
         <v>1</v>
       </c>
@@ -13449,7 +13565,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2">
         <v>2</v>
       </c>
@@ -13463,7 +13579,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>3</v>
       </c>
@@ -13477,7 +13593,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>4</v>
       </c>
@@ -13491,7 +13607,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4">
       <c r="A5">
         <v>5</v>
       </c>
@@ -13505,7 +13621,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4">
       <c r="A6">
         <v>6</v>
       </c>
@@ -13519,7 +13635,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4">
       <c r="A7">
         <v>7</v>
       </c>
@@ -13533,7 +13649,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4">
       <c r="A8">
         <v>8</v>
       </c>
@@ -13547,7 +13663,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4">
       <c r="A9">
         <v>9</v>
       </c>
@@ -13561,7 +13677,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4">
       <c r="A10">
         <v>10</v>
       </c>
@@ -13575,7 +13691,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4">
       <c r="A11">
         <v>11</v>
       </c>
@@ -13589,7 +13705,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4">
       <c r="A12">
         <v>12</v>
       </c>
@@ -13603,7 +13719,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4">
       <c r="A13">
         <v>13</v>
       </c>
@@ -13617,7 +13733,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4">
       <c r="A14">
         <v>14</v>
       </c>
@@ -13631,7 +13747,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4">
       <c r="A15">
         <v>15</v>
       </c>
@@ -13645,7 +13761,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4">
       <c r="A16">
         <v>16</v>
       </c>
@@ -13659,7 +13775,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4">
       <c r="A17">
         <v>17</v>
       </c>
@@ -13673,7 +13789,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4">
       <c r="A18">
         <v>18</v>
       </c>
@@ -13687,7 +13803,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4">
       <c r="A19">
         <v>19</v>
       </c>
@@ -13701,7 +13817,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4">
       <c r="A20">
         <v>20</v>
       </c>
@@ -13715,7 +13831,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4">
       <c r="A21">
         <v>21</v>
       </c>
@@ -13729,7 +13845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4">
       <c r="A22">
         <v>22</v>
       </c>
@@ -13743,7 +13859,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4">
       <c r="A23">
         <v>23</v>
       </c>
@@ -13757,7 +13873,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4">
       <c r="A24">
         <v>24</v>
       </c>
@@ -13771,7 +13887,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4">
       <c r="A25">
         <v>25</v>
       </c>
@@ -13785,7 +13901,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4">
       <c r="A26">
         <v>26</v>
       </c>
@@ -13799,7 +13915,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4">
       <c r="A27">
         <v>27</v>
       </c>
@@ -13827,14 +13943,14 @@
       <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="2" width="7.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1">
         <v>1</v>
       </c>
@@ -13848,7 +13964,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2">
         <v>2</v>
       </c>
@@ -13862,7 +13978,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>3</v>
       </c>
@@ -13876,7 +13992,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>4</v>
       </c>
@@ -13890,7 +14006,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4">
       <c r="A5">
         <v>5</v>
       </c>
@@ -13904,7 +14020,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4">
       <c r="A6">
         <v>6</v>
       </c>
@@ -13918,7 +14034,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4">
       <c r="A7">
         <v>7</v>
       </c>
@@ -13932,7 +14048,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4">
       <c r="A8">
         <v>8</v>
       </c>
@@ -13946,7 +14062,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4">
       <c r="A9">
         <v>9</v>
       </c>
@@ -13960,7 +14076,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4">
       <c r="A10">
         <v>10</v>
       </c>
@@ -13974,7 +14090,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4">
       <c r="A11">
         <v>11</v>
       </c>
@@ -13988,7 +14104,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4">
       <c r="A12">
         <v>12</v>
       </c>
@@ -14002,7 +14118,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4">
       <c r="A13">
         <v>13</v>
       </c>
@@ -14016,7 +14132,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4">
       <c r="A14">
         <v>14</v>
       </c>
@@ -14030,7 +14146,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4">
       <c r="A15">
         <v>15</v>
       </c>
@@ -14044,7 +14160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4">
       <c r="A16">
         <v>16</v>
       </c>
@@ -14058,7 +14174,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4">
       <c r="A17">
         <v>17</v>
       </c>
@@ -14072,7 +14188,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4">
       <c r="A18">
         <v>18</v>
       </c>
@@ -14086,7 +14202,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4">
       <c r="A19">
         <v>19</v>
       </c>
@@ -14100,7 +14216,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4">
       <c r="A20">
         <v>20</v>
       </c>
@@ -14114,7 +14230,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4">
       <c r="A21">
         <v>21</v>
       </c>
@@ -14128,7 +14244,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4">
       <c r="A22">
         <v>22</v>
       </c>
@@ -14142,7 +14258,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4">
       <c r="A23">
         <v>23</v>
       </c>
@@ -14156,7 +14272,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4">
       <c r="A24">
         <v>24</v>
       </c>
@@ -14170,7 +14286,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4">
       <c r="A25">
         <v>25</v>
       </c>
@@ -14184,7 +14300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4">
       <c r="A26">
         <v>26</v>
       </c>
@@ -14198,7 +14314,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4">
       <c r="A27">
         <v>27</v>
       </c>
@@ -14212,7 +14328,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4">
       <c r="A28">
         <v>28</v>
       </c>
@@ -14226,7 +14342,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4">
       <c r="A29">
         <v>29</v>
       </c>
@@ -14240,7 +14356,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4">
       <c r="A30">
         <v>30</v>
       </c>
@@ -14254,7 +14370,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4">
       <c r="A31">
         <v>31</v>
       </c>
@@ -14268,7 +14384,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4">
       <c r="A32">
         <v>32</v>
       </c>
@@ -14282,7 +14398,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4">
       <c r="A33">
         <v>33</v>
       </c>
@@ -14296,7 +14412,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4">
       <c r="A34">
         <v>34</v>
       </c>
@@ -14310,7 +14426,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4">
       <c r="A35">
         <v>35</v>
       </c>
@@ -14324,7 +14440,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4">
       <c r="A36">
         <v>36</v>
       </c>
@@ -14338,7 +14454,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4">
       <c r="A37">
         <v>37</v>
       </c>
@@ -14352,7 +14468,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4">
       <c r="A38">
         <v>38</v>
       </c>
@@ -14366,7 +14482,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4">
       <c r="A39">
         <v>39</v>
       </c>
@@ -14380,7 +14496,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4">
       <c r="A40">
         <v>40</v>
       </c>
@@ -14394,7 +14510,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4">
       <c r="A41">
         <v>41</v>
       </c>
@@ -14408,7 +14524,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4">
       <c r="A42">
         <v>42</v>
       </c>
@@ -14422,7 +14538,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4">
       <c r="A43">
         <v>43</v>
       </c>
@@ -14436,7 +14552,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4">
       <c r="A44">
         <v>44</v>
       </c>
@@ -14450,7 +14566,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4">
       <c r="A45">
         <v>45</v>
       </c>
@@ -14464,7 +14580,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4">
       <c r="A46">
         <v>46</v>
       </c>
@@ -14478,7 +14594,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4">
       <c r="A47">
         <v>47</v>
       </c>
@@ -14492,7 +14608,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4">
       <c r="A48">
         <v>48</v>
       </c>
@@ -14506,7 +14622,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4">
       <c r="A49">
         <v>49</v>
       </c>
@@ -14520,7 +14636,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4">
       <c r="A50">
         <v>50</v>
       </c>
@@ -14534,7 +14650,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4">
       <c r="A51">
         <v>51</v>
       </c>
@@ -14548,7 +14664,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4">
       <c r="A52">
         <v>52</v>
       </c>
@@ -14562,7 +14678,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4">
       <c r="A53">
         <v>53</v>
       </c>
@@ -14576,7 +14692,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4">
       <c r="A54">
         <v>54</v>
       </c>
@@ -14590,7 +14706,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4">
       <c r="A55">
         <v>55</v>
       </c>
@@ -14604,7 +14720,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4">
       <c r="A56">
         <v>56</v>
       </c>
@@ -14618,7 +14734,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4">
       <c r="A57">
         <v>57</v>
       </c>
@@ -14632,7 +14748,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4">
       <c r="A58">
         <v>58</v>
       </c>
@@ -14646,7 +14762,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4">
       <c r="A59">
         <v>59</v>
       </c>
@@ -14660,7 +14776,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4">
       <c r="A60">
         <v>60</v>
       </c>
@@ -14674,7 +14790,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4">
       <c r="A61">
         <v>61</v>
       </c>
@@ -14688,7 +14804,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:4">
       <c r="A62">
         <v>62</v>
       </c>
@@ -14702,7 +14818,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:4">
       <c r="A63">
         <v>63</v>
       </c>
@@ -14716,7 +14832,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:4">
       <c r="A64">
         <v>64</v>
       </c>
@@ -14730,7 +14846,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4">
       <c r="A65">
         <v>65</v>
       </c>
@@ -14744,7 +14860,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4">
       <c r="A66">
         <v>66</v>
       </c>
@@ -14758,7 +14874,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4">
       <c r="A67">
         <v>67</v>
       </c>
@@ -14772,7 +14888,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4">
       <c r="A68">
         <v>68</v>
       </c>
@@ -14786,7 +14902,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:4">
       <c r="A69">
         <v>69</v>
       </c>
@@ -14800,7 +14916,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:4">
       <c r="A70">
         <v>70</v>
       </c>
@@ -14814,7 +14930,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4">
       <c r="A71">
         <v>71</v>
       </c>
@@ -14828,7 +14944,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:4">
       <c r="A72">
         <v>72</v>
       </c>
@@ -14842,7 +14958,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:4">
       <c r="A73">
         <v>73</v>
       </c>
@@ -14856,7 +14972,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:4">
       <c r="A74">
         <v>74</v>
       </c>
@@ -14870,7 +14986,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:4">
       <c r="A75">
         <v>75</v>
       </c>
@@ -14884,7 +15000,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:4">
       <c r="A76">
         <v>76</v>
       </c>
@@ -14898,7 +15014,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:4">
       <c r="A77">
         <v>77</v>
       </c>
@@ -14912,7 +15028,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:4">
       <c r="A78">
         <v>78</v>
       </c>
@@ -14926,7 +15042,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:4">
       <c r="A79">
         <v>79</v>
       </c>
@@ -14940,7 +15056,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:4">
       <c r="A80">
         <v>80</v>
       </c>
@@ -14954,7 +15070,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:4">
       <c r="A81">
         <v>81</v>
       </c>
@@ -14968,7 +15084,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:4">
       <c r="A82">
         <v>82</v>
       </c>
@@ -14982,7 +15098,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:4">
       <c r="A83">
         <v>83</v>
       </c>
@@ -14996,7 +15112,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:4">
       <c r="A84">
         <v>84</v>
       </c>
@@ -15010,7 +15126,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:4">
       <c r="A85">
         <v>85</v>
       </c>
@@ -15024,7 +15140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:4">
       <c r="A86">
         <v>86</v>
       </c>
@@ -15038,7 +15154,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:4">
       <c r="A87">
         <v>87</v>
       </c>
@@ -15052,7 +15168,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:4">
       <c r="A88">
         <v>88</v>
       </c>
@@ -15066,7 +15182,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:4">
       <c r="A89">
         <v>89</v>
       </c>
@@ -15080,7 +15196,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:4">
       <c r="A90">
         <v>90</v>
       </c>
@@ -15094,7 +15210,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:4">
       <c r="A91">
         <v>91</v>
       </c>
@@ -15108,7 +15224,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:4">
       <c r="A92">
         <v>92</v>
       </c>
@@ -15122,7 +15238,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:4">
       <c r="A93">
         <v>93</v>
       </c>
@@ -15136,7 +15252,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:4">
       <c r="A94">
         <v>94</v>
       </c>
@@ -15150,7 +15266,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:4">
       <c r="A95">
         <v>95</v>
       </c>
@@ -15164,7 +15280,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:4">
       <c r="A96">
         <v>96</v>
       </c>
@@ -15178,7 +15294,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:4">
       <c r="A97">
         <v>97</v>
       </c>
@@ -15192,7 +15308,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:4">
       <c r="A98">
         <v>98</v>
       </c>
@@ -15206,7 +15322,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:4">
       <c r="A99">
         <v>99</v>
       </c>
@@ -15220,7 +15336,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:4">
       <c r="A100">
         <v>100</v>
       </c>
@@ -15234,7 +15350,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:4">
       <c r="A101">
         <v>101</v>
       </c>
@@ -15248,7 +15364,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:4">
       <c r="A102">
         <v>102</v>
       </c>
@@ -15262,7 +15378,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:4">
       <c r="A103">
         <v>103</v>
       </c>
@@ -15276,7 +15392,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:4">
       <c r="A104">
         <v>104</v>
       </c>
@@ -15290,7 +15406,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:4">
       <c r="A105">
         <v>105</v>
       </c>
@@ -15304,7 +15420,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:4">
       <c r="A106">
         <v>106</v>
       </c>
@@ -15318,7 +15434,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:4">
       <c r="A107">
         <v>107</v>
       </c>
@@ -15332,7 +15448,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:4">
       <c r="A108">
         <v>108</v>
       </c>
@@ -15346,7 +15462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:4">
       <c r="A109">
         <v>109</v>
       </c>
@@ -15360,7 +15476,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:4">
       <c r="A110">
         <v>110</v>
       </c>
@@ -15374,7 +15490,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:4">
       <c r="A111">
         <v>111</v>
       </c>
@@ -15388,7 +15504,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:4">
       <c r="A112">
         <v>112</v>
       </c>
@@ -15402,7 +15518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:4">
       <c r="A113">
         <v>113</v>
       </c>
@@ -15416,7 +15532,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:4">
       <c r="A114">
         <v>114</v>
       </c>
@@ -15430,7 +15546,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:4">
       <c r="A115">
         <v>115</v>
       </c>
@@ -15444,7 +15560,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:4">
       <c r="A116">
         <v>116</v>
       </c>
@@ -15458,7 +15574,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:4">
       <c r="A117">
         <v>117</v>
       </c>
@@ -15472,7 +15588,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:4">
       <c r="A118">
         <v>118</v>
       </c>
@@ -15486,7 +15602,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:4">
       <c r="A119">
         <v>119</v>
       </c>
@@ -15500,7 +15616,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:4">
       <c r="A120">
         <v>120</v>
       </c>
@@ -15514,7 +15630,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:4">
       <c r="A121">
         <v>121</v>
       </c>
@@ -15528,7 +15644,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:4">
       <c r="A122">
         <v>122</v>
       </c>
@@ -15542,7 +15658,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:4">
       <c r="A123">
         <v>123</v>
       </c>
@@ -15556,7 +15672,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:4">
       <c r="A124">
         <v>124</v>
       </c>
@@ -15570,7 +15686,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:4">
       <c r="A125">
         <v>125</v>
       </c>
@@ -15584,7 +15700,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:4">
       <c r="A126">
         <v>126</v>
       </c>
@@ -15598,7 +15714,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:4">
       <c r="A127">
         <v>127</v>
       </c>
@@ -15612,7 +15728,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:4">
       <c r="A128">
         <v>128</v>
       </c>
@@ -15626,7 +15742,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:4">
       <c r="A129">
         <v>129</v>
       </c>
@@ -15640,7 +15756,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:4">
       <c r="A130">
         <v>130</v>
       </c>
@@ -15654,7 +15770,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:4">
       <c r="A131">
         <v>131</v>
       </c>
@@ -15668,7 +15784,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:4">
       <c r="A132">
         <v>132</v>
       </c>
@@ -15682,7 +15798,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:4">
       <c r="A133">
         <v>133</v>
       </c>
@@ -15696,7 +15812,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:4">
       <c r="A134">
         <v>134</v>
       </c>
@@ -15710,7 +15826,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:4">
       <c r="A135">
         <v>135</v>
       </c>
@@ -15724,7 +15840,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:4">
       <c r="A136">
         <v>136</v>
       </c>
@@ -15738,7 +15854,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:4">
       <c r="A137">
         <v>137</v>
       </c>
@@ -15752,7 +15868,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:4">
       <c r="A138">
         <v>138</v>
       </c>
@@ -15766,7 +15882,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:4">
       <c r="A139">
         <v>139</v>
       </c>
@@ -15780,7 +15896,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:4">
       <c r="A140">
         <v>140</v>
       </c>
@@ -15794,7 +15910,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:4">
       <c r="A141">
         <v>141</v>
       </c>
@@ -15808,7 +15924,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:4">
       <c r="A142">
         <v>142</v>
       </c>
@@ -15822,7 +15938,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:4">
       <c r="A143">
         <v>143</v>
       </c>
@@ -15836,7 +15952,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:4">
       <c r="A144">
         <v>144</v>
       </c>
@@ -15850,7 +15966,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:4">
       <c r="A145">
         <v>145</v>
       </c>
@@ -15864,7 +15980,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:4">
       <c r="A146">
         <v>146</v>
       </c>
@@ -15878,7 +15994,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:4">
       <c r="A147">
         <v>147</v>
       </c>
@@ -15892,7 +16008,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:4">
       <c r="A148">
         <v>148</v>
       </c>
@@ -15906,7 +16022,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:4">
       <c r="A149">
         <v>149</v>
       </c>
@@ -15920,7 +16036,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:4">
       <c r="A150">
         <v>150</v>
       </c>
@@ -15934,7 +16050,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:4">
       <c r="A151">
         <v>151</v>
       </c>
@@ -15948,7 +16064,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:4">
       <c r="A152">
         <v>152</v>
       </c>
@@ -15962,7 +16078,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:4">
       <c r="A153">
         <v>153</v>
       </c>
@@ -15976,7 +16092,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:4">
       <c r="A154">
         <v>154</v>
       </c>
@@ -15990,7 +16106,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:4">
       <c r="A155">
         <v>155</v>
       </c>
@@ -16004,7 +16120,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:4">
       <c r="A156">
         <v>156</v>
       </c>
@@ -16018,7 +16134,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:4">
       <c r="A157">
         <v>157</v>
       </c>
@@ -16032,7 +16148,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:4">
       <c r="A158">
         <v>158</v>
       </c>
@@ -16046,7 +16162,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:4">
       <c r="A159">
         <v>159</v>
       </c>
@@ -16060,7 +16176,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:4">
       <c r="A160">
         <v>160</v>
       </c>
@@ -16074,7 +16190,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:4">
       <c r="A161">
         <v>161</v>
       </c>
@@ -16088,7 +16204,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:4">
       <c r="A162">
         <v>162</v>
       </c>
@@ -16102,7 +16218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:4">
       <c r="A163">
         <v>163</v>
       </c>
@@ -16116,7 +16232,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:4">
       <c r="A164">
         <v>164</v>
       </c>
@@ -16130,7 +16246,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:4">
       <c r="A165">
         <v>165</v>
       </c>
@@ -16144,7 +16260,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:4">
       <c r="A166">
         <v>166</v>
       </c>
@@ -16158,7 +16274,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:4">
       <c r="A167">
         <v>167</v>
       </c>
@@ -16172,7 +16288,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:4">
       <c r="A168">
         <v>168</v>
       </c>
@@ -16186,7 +16302,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:4">
       <c r="A169">
         <v>169</v>
       </c>
@@ -16200,7 +16316,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:4">
       <c r="A170">
         <v>170</v>
       </c>
@@ -16214,7 +16330,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:4">
       <c r="A171">
         <v>171</v>
       </c>
@@ -16242,13 +16358,13 @@
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="2" width="7.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1">
         <v>1</v>
       </c>
@@ -16259,7 +16375,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>2</v>
       </c>
@@ -16270,7 +16386,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3">
         <v>3</v>
       </c>
@@ -16281,7 +16397,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4">
         <v>4</v>
       </c>
@@ -16292,7 +16408,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
       <c r="A5">
         <v>5</v>
       </c>
@@ -16303,7 +16419,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3">
       <c r="A6">
         <v>6</v>
       </c>
@@ -16314,7 +16430,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3">
       <c r="A7">
         <v>7</v>
       </c>
@@ -16325,7 +16441,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3">
       <c r="A8">
         <v>8</v>
       </c>
@@ -16336,7 +16452,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3">
       <c r="A9">
         <v>9</v>
       </c>
@@ -16347,7 +16463,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3">
       <c r="A10">
         <v>10</v>
       </c>
@@ -16358,7 +16474,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3">
       <c r="A11">
         <v>11</v>
       </c>
@@ -16369,7 +16485,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3">
       <c r="A12">
         <v>12</v>
       </c>
@@ -16380,7 +16496,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3">
       <c r="A13">
         <v>13</v>
       </c>
@@ -16391,7 +16507,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3">
       <c r="A14">
         <v>14</v>
       </c>
@@ -16402,7 +16518,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3">
       <c r="A15">
         <v>15</v>
       </c>
@@ -16413,7 +16529,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3">
       <c r="A16">
         <v>16</v>
       </c>
@@ -16424,7 +16540,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3">
       <c r="A17">
         <v>17</v>
       </c>
@@ -16435,7 +16551,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3">
       <c r="A18">
         <v>18</v>
       </c>
@@ -16446,7 +16562,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3">
       <c r="A19">
         <v>19</v>
       </c>
@@ -16457,7 +16573,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3">
       <c r="A20">
         <v>20</v>
       </c>
@@ -16468,7 +16584,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3">
       <c r="A21">
         <v>21</v>
       </c>
@@ -16479,7 +16595,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3">
       <c r="A22">
         <v>22</v>
       </c>
@@ -16490,7 +16606,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3">
       <c r="A23">
         <v>23</v>
       </c>
@@ -16501,7 +16617,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3">
       <c r="A24">
         <v>24</v>
       </c>
@@ -16512,7 +16628,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3">
       <c r="A25">
         <v>25</v>
       </c>
@@ -16523,7 +16639,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3">
       <c r="A26">
         <v>26</v>
       </c>
@@ -16534,7 +16650,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3">
       <c r="A27">
         <v>27</v>
       </c>
@@ -16545,7 +16661,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3">
       <c r="A28">
         <v>28</v>
       </c>
@@ -16556,7 +16672,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3">
       <c r="A29">
         <v>29</v>
       </c>
@@ -16567,7 +16683,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3">
       <c r="A30">
         <v>30</v>
       </c>
@@ -16578,7 +16694,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3">
       <c r="A31">
         <v>31</v>
       </c>
@@ -16589,7 +16705,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3">
       <c r="A32">
         <v>32</v>
       </c>
@@ -16600,7 +16716,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3">
       <c r="A33">
         <v>33</v>
       </c>
@@ -16611,7 +16727,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3">
       <c r="A34">
         <v>34</v>
       </c>
@@ -16622,7 +16738,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3">
       <c r="A35">
         <v>35</v>
       </c>
@@ -16633,7 +16749,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3">
       <c r="A36">
         <v>36</v>
       </c>
@@ -16644,7 +16760,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3">
       <c r="A37">
         <v>37</v>
       </c>
@@ -16655,7 +16771,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3">
       <c r="A38">
         <v>38</v>
       </c>
@@ -16666,7 +16782,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3">
       <c r="A39">
         <v>39</v>
       </c>
@@ -16677,7 +16793,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3">
       <c r="A40">
         <v>40</v>
       </c>
@@ -16697,159 +16813,191 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BA32426-55CD-407A-9A45-01C07A69C2FB}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="4" max="4" width="11.875" customWidth="1"/>
+    <col min="5" max="5" width="77.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1">
         <v>1</v>
       </c>
       <c r="B1">
-        <v>300080</v>
-      </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+        <v>688012</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>958</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>976</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>2</v>
       </c>
       <c r="B2">
-        <v>300824</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+        <v>688601</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>959</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>976</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="28.5">
       <c r="A3">
         <v>3</v>
       </c>
       <c r="B3">
-        <v>600818</v>
-      </c>
-      <c r="C3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+        <v>603197</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>962</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>977</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>4</v>
       </c>
       <c r="B4">
-        <v>600223</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+        <v>2597</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>963</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>978</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>5</v>
       </c>
       <c r="B5">
-        <v>600231</v>
-      </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+        <v>2390</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>965</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>978</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="16.5">
       <c r="A6">
         <v>6</v>
       </c>
-      <c r="B6">
-        <v>56</v>
-      </c>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B6" s="1">
+        <v>300503</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>966</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>978</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7">
         <v>7</v>
       </c>
       <c r="B7">
-        <v>630</v>
-      </c>
-      <c r="C7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+        <v>688122</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>968</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>975</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8">
         <v>8</v>
       </c>
       <c r="B8">
-        <v>600291</v>
-      </c>
-      <c r="C8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+        <v>2572</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>970</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>975</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9">
         <v>9</v>
       </c>
       <c r="B9">
-        <v>603722</v>
-      </c>
-      <c r="C9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+        <v>2967</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>972</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>975</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10">
         <v>10</v>
       </c>
       <c r="B10">
-        <v>600058</v>
-      </c>
-      <c r="C10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" t="s">
-        <v>18</v>
+        <v>300548</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>974</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>975</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>981</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/crontab/AMarcket/JGZC.xlsx
+++ b/crontab/AMarcket/JGZC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\python\QKL0731\crontab\AMarcket\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B86DEB9F-DE71-4B1F-88E1-5A0FBD3EBA08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F93FAC8-48E5-46B3-9E84-F770F817315A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6480" yWindow="4830" windowWidth="21600" windowHeight="11385" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16816,7 +16816,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>

--- a/crontab/AMarcket/JGZC.xlsx
+++ b/crontab/AMarcket/JGZC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\python\QKL0731\crontab\AMarcket\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F93FAC8-48E5-46B3-9E84-F770F817315A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73D9B99D-2FF3-473C-8963-93372BFE1721}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6480" yWindow="4830" windowWidth="21600" windowHeight="11385" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="机构重仓" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1832" uniqueCount="982">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1835" uniqueCount="985">
   <si>
     <t xml:space="preserve"> 易成新能</t>
   </si>
@@ -2994,6 +2994,18 @@
   </si>
   <si>
     <t>2021-4-5，上海高毅资产管理合伙企业(有限合伙)-高毅晓峰2号致信基金，新进</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>金龙鱼</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>林园投资</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-3-31，深圳市林园投资管理有限责任公司-林园投资158号私募证券投资基金，新进</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -16813,10 +16825,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BA32426-55CD-407A-9A45-01C07A69C2FB}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -16995,6 +17007,23 @@
         <v>981</v>
       </c>
     </row>
+    <row r="11" spans="1:5">
+      <c r="A11">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>300999</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>982</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>983</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>984</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
